--- a/Results/GlassDoorVerifiedList.xlsx
+++ b/Results/GlassDoorVerifiedList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://se4-my.sharepoint.com/personal/lqian_se_edu/Documents/Research/GlassDoor/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo_q\Desktop\Working on\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="328" documentId="13_ncr:40009_{463CDDE6-8986-41BC-B79A-6C630A85289F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2C67E0D-8070-4E39-BD94-7211B224EBAA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E386FEE-1F66-4616-8BEF-E46D0CF7D738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="copy" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="1071">
   <si>
     <t>D_num</t>
   </si>
@@ -2403,6 +2403,849 @@
   </si>
   <si>
     <t>Notes3</t>
+  </si>
+  <si>
+    <t>Liberty Global PLC</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Array Biopharma Inc</t>
+  </si>
+  <si>
+    <t>Thorley Industries LLC</t>
+  </si>
+  <si>
+    <t>Physical Optics Corp</t>
+  </si>
+  <si>
+    <t>IDT Corp</t>
+  </si>
+  <si>
+    <t>Cogint Inc</t>
+  </si>
+  <si>
+    <t>RTI International</t>
+  </si>
+  <si>
+    <t>Stratasys Ltd</t>
+  </si>
+  <si>
+    <t>Pentair plc</t>
+  </si>
+  <si>
+    <t>Dover Corp</t>
+  </si>
+  <si>
+    <t>VC3 Inc</t>
+  </si>
+  <si>
+    <t>Blackstone Group LP</t>
+  </si>
+  <si>
+    <t>Wyndham Worldwide Corp</t>
+  </si>
+  <si>
+    <t>Spirit Realty Capital Inc</t>
+  </si>
+  <si>
+    <t>Next Alt SARL</t>
+  </si>
+  <si>
+    <t>DDR Corp</t>
+  </si>
+  <si>
+    <t>LINN Energy Inc</t>
+  </si>
+  <si>
+    <t>Grupo Financiero Mercantil</t>
+  </si>
+  <si>
+    <t>Milliman Inc</t>
+  </si>
+  <si>
+    <t>Inpixon</t>
+  </si>
+  <si>
+    <t>Klx Inc</t>
+  </si>
+  <si>
+    <t>DHI Group Inc</t>
+  </si>
+  <si>
+    <t>ServiceMaster Global Holdings Inc</t>
+  </si>
+  <si>
+    <t>Honeywell International Inc</t>
+  </si>
+  <si>
+    <t>Carolina Pad</t>
+  </si>
+  <si>
+    <t>Trinity Industries Inc</t>
+  </si>
+  <si>
+    <t>Eqt Corp-Midstream Business</t>
+  </si>
+  <si>
+    <t>BGC Partners Inc</t>
+  </si>
+  <si>
+    <t>NETGEAR Inc</t>
+  </si>
+  <si>
+    <t>AECOM</t>
+  </si>
+  <si>
+    <t>FMC Corp</t>
+  </si>
+  <si>
+    <t>Continental AG</t>
+  </si>
+  <si>
+    <t>21st Century Fox Inc</t>
+  </si>
+  <si>
+    <t>Ironwood Pharmaceuticals Inc</t>
+  </si>
+  <si>
+    <t>DowDuPont Inc</t>
+  </si>
+  <si>
+    <t>Onex Corp</t>
+  </si>
+  <si>
+    <t>Vertical Co</t>
+  </si>
+  <si>
+    <t>VF Corp</t>
+  </si>
+  <si>
+    <t>Thompson Street Capital Partners LP</t>
+  </si>
+  <si>
+    <t>Whitepages Pro</t>
+  </si>
+  <si>
+    <t>KAR Auction Services Inc</t>
+  </si>
+  <si>
+    <t>First Bankers Trustshares Inc, Quincy,Illinois</t>
+  </si>
+  <si>
+    <t>MYnd Analytics Inc</t>
+  </si>
+  <si>
+    <t>Leader Bank NA</t>
+  </si>
+  <si>
+    <t>Pickering Energy Partners LP</t>
+  </si>
+  <si>
+    <t>Ensign Group Inc</t>
+  </si>
+  <si>
+    <t>Nuance Communications Inc</t>
+  </si>
+  <si>
+    <t>Polo Digital Assets Ltd</t>
+  </si>
+  <si>
+    <t>Sverica Capital Management LP</t>
+  </si>
+  <si>
+    <t>Taronis Fuels Inc</t>
+  </si>
+  <si>
+    <t>Avant LLC</t>
+  </si>
+  <si>
+    <t>Cleartronic Inc</t>
+  </si>
+  <si>
+    <t>Brookfield Infrastructure Partners LP</t>
+  </si>
+  <si>
+    <t>Chanticleer Holdings Inc</t>
+  </si>
+  <si>
+    <t>Arconic Inc</t>
+  </si>
+  <si>
+    <t>United Technologies Corp</t>
+  </si>
+  <si>
+    <t>The Madison Square Garden Co</t>
+  </si>
+  <si>
+    <t>Sphero Inc</t>
+  </si>
+  <si>
+    <t>Greenpro Capital Corp</t>
+  </si>
+  <si>
+    <t>GreyLion Capital LP</t>
+  </si>
+  <si>
+    <t>Kaufman Hall &amp; Associates LLC</t>
+  </si>
+  <si>
+    <t>IAC/InterActiveCorp</t>
+  </si>
+  <si>
+    <t>Brookfield Asset Management Inc</t>
+  </si>
+  <si>
+    <t>Associated Capital Group Inc</t>
+  </si>
+  <si>
+    <t>HCI Equity Partners LLC</t>
+  </si>
+  <si>
+    <t>American Outdoor Brands Inc</t>
+  </si>
+  <si>
+    <t>Intel Corp</t>
+  </si>
+  <si>
+    <t>Folio Financial Inc</t>
+  </si>
+  <si>
+    <t>BFC Financial Corp</t>
+  </si>
+  <si>
+    <t>LENSAR Inc</t>
+  </si>
+  <si>
+    <t>Fortive Corp</t>
+  </si>
+  <si>
+    <t>Searchlight Capital Partners LP</t>
+  </si>
+  <si>
+    <t>Myos Rens Technology Inc</t>
+  </si>
+  <si>
+    <t>GlaxoSmithKline PLC</t>
+  </si>
+  <si>
+    <t>SYNNEX Corp</t>
+  </si>
+  <si>
+    <t>Aaron's Inc</t>
+  </si>
+  <si>
+    <t>Apartment Investment &amp; Management Co</t>
+  </si>
+  <si>
+    <t>Ameri Holdings Inc</t>
+  </si>
+  <si>
+    <t>Gold Resource Corp</t>
+  </si>
+  <si>
+    <t>OncoImmune Inc</t>
+  </si>
+  <si>
+    <t>Verint Systems Inc</t>
+  </si>
+  <si>
+    <t>Edwards Lifesciences Corp</t>
+  </si>
+  <si>
+    <t>Uber Technologies Inc</t>
+  </si>
+  <si>
+    <t>SinglePoint Inc</t>
+  </si>
+  <si>
+    <t>IAC/InteractiveCorp</t>
+  </si>
+  <si>
+    <t>Merck &amp; Co Inc</t>
+  </si>
+  <si>
+    <t>DTE Energy Co</t>
+  </si>
+  <si>
+    <t>Silver Lake Partners LP</t>
+  </si>
+  <si>
+    <t>L Brands Inc</t>
+  </si>
+  <si>
+    <t>XPO Logistics Inc</t>
+  </si>
+  <si>
+    <t>International Paper Co</t>
+  </si>
+  <si>
+    <t>J2 Global Inc</t>
+  </si>
+  <si>
+    <t>Arizona Lithium Ltd</t>
+  </si>
+  <si>
+    <t>Genie Energy Ltd</t>
+  </si>
+  <si>
+    <t>Dell Technologies Inc</t>
+  </si>
+  <si>
+    <t>International Business Machines Corp</t>
+  </si>
+  <si>
+    <t>Beyond Cancer Ltd</t>
+  </si>
+  <si>
+    <t>bluebird bio Inc</t>
+  </si>
+  <si>
+    <t>Realty Income Corp</t>
+  </si>
+  <si>
+    <t>Meredith Corp</t>
+  </si>
+  <si>
+    <t>Vector Group Ltd</t>
+  </si>
+  <si>
+    <t>PTC Inc</t>
+  </si>
+  <si>
+    <t>Trutankless Inc</t>
+  </si>
+  <si>
+    <t>Neudesic LLC</t>
+  </si>
+  <si>
+    <t>Constellation Energy Corp</t>
+  </si>
+  <si>
+    <t>Zimmer Biomet Holdings Inc</t>
+  </si>
+  <si>
+    <t>Becton Dickinson &amp; Co</t>
+  </si>
+  <si>
+    <t>Colfax Corp</t>
+  </si>
+  <si>
+    <t>Pacific Coast Fruit Co</t>
+  </si>
+  <si>
+    <t>Riordan Lewis &amp; Haden Equity Partners</t>
+  </si>
+  <si>
+    <t>Vinco Ventures Inc</t>
+  </si>
+  <si>
+    <t>Encompass Health Corp</t>
+  </si>
+  <si>
+    <t>GSK plc</t>
+  </si>
+  <si>
+    <t>Fortress Transportation &amp; Infrastructure Investors LLC</t>
+  </si>
+  <si>
+    <t>Xperi Holding Corp</t>
+  </si>
+  <si>
+    <t>Biohaven Pharmaceutical Holding Co Ltd</t>
+  </si>
+  <si>
+    <t>Bluerock Residential Growth REIT Inc</t>
+  </si>
+  <si>
+    <t>LGL Group Inc</t>
+  </si>
+  <si>
+    <t>Fidelity National Financial Inc</t>
+  </si>
+  <si>
+    <t>Fortune Brands Home &amp; Security Inc</t>
+  </si>
+  <si>
+    <t>General Electric Co</t>
+  </si>
+  <si>
+    <t>Jefferies Financial Group Inc</t>
+  </si>
+  <si>
+    <t>iStar Inc</t>
+  </si>
+  <si>
+    <t>Crane Holdings Co</t>
+  </si>
+  <si>
+    <t>Madison Square Garden Entertainment Corp</t>
+  </si>
+  <si>
+    <t>Curative Health Holdings Inc</t>
+  </si>
+  <si>
+    <t>Petal Card Inc</t>
+  </si>
+  <si>
+    <t>Meta Platforms Inc</t>
+  </si>
+  <si>
+    <t>Wisekey International Holding AG</t>
+  </si>
+  <si>
+    <t>Houston Natural Resources Corp</t>
+  </si>
+  <si>
+    <t>MDU Resources Group Inc</t>
+  </si>
+  <si>
+    <t>Labcorp Holdings Inc</t>
+  </si>
+  <si>
+    <t>BorgWarner Inc</t>
+  </si>
+  <si>
+    <t>JS Global Lifestyle Co Ltd</t>
+  </si>
+  <si>
+    <t>Netography Inc</t>
+  </si>
+  <si>
+    <t>Safe &amp; Green Holdings Corp</t>
+  </si>
+  <si>
+    <t>Danaher Corp</t>
+  </si>
+  <si>
+    <t>Kellanova</t>
+  </si>
+  <si>
+    <t>Aramark Corp</t>
+  </si>
+  <si>
+    <t>Utica Resource Ventures LLC</t>
+  </si>
+  <si>
+    <t>NCR Voyix Corp</t>
+  </si>
+  <si>
+    <t>WP Carey Inc</t>
+  </si>
+  <si>
+    <t>Alkermes PLC</t>
+  </si>
+  <si>
+    <t>Rough House Games Inc</t>
+  </si>
+  <si>
+    <t>Worthington Enterprises Inc</t>
+  </si>
+  <si>
+    <t>Flex Ltd</t>
+  </si>
+  <si>
+    <t>Elda River Capital Management LLC</t>
+  </si>
+  <si>
+    <t>3M Co</t>
+  </si>
+  <si>
+    <t>Inhibrx Inc</t>
+  </si>
+  <si>
+    <t>Illumina Inc</t>
+  </si>
+  <si>
+    <t>AFC Gamma Inc</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Liberty-Global-Reviews-E38776.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Array-BioPharma-Reviews-E4648142.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/4moms-Reviews-E505096.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Mercury-Systems-Reviews-E4049.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Fluent-Reviews-E825747.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/RTI-International-Reviews-E4480.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Stratasys-Reviews-E3760.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Pentair-Reviews-E1767.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/VC3-Reviews-E394569.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/The-Blackstone-Group-Reviews-E4022.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Spirit-Realty-Capital-Reviews-E1844789.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/State-Farm-Reviews-E2990.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/DDR-Corp-Reviews-E2277.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Linn-Energy-Reviews-E38467.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Banorte-Reviews-E8236.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Milliman-Reviews-E13873.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Inpixon-Reviews-E1626192.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/KLX-Energy-Services-Reviews-E1079236.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/DHI-Group-Reviews-E1176264.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Carolina-Pad-Reviews-E2400339.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Trinity-Industries-Reviews-E678.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/EQT-Corporation-Reviews-E233.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/BGC-Group-Reviews-E9862.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/NETGEAR-Reviews-E12666.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/AECOM-Reviews-E5632.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/FMC-Reviews-E239.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Continental-Reviews-E3768.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/FOX-International-Channels-Reviews-E1018920.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Ironwood-Pharmaceuticals-Reviews-E262397.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/DowDupont-Reviews-E2123565.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Onex-Reviews-E6492.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Vertical-Screen-Reviews-E363989.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/VF-Reviews-E703.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Thompson-Street-Capital-Partners-Reviews-E134472.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Ekata-Reviews-E2867079.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/OPENLANE-Reviews-E43271.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Telemynd-Reviews-E4211224.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Leader-Bank-Reviews-E348885.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Pickering-Energy-Partners-Reviews-E7422120.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Nuance-Reviews-E5667.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Poloniex-Reviews-E3202818.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Sverica-Capital-Reviews-E2553217.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Taronis-Fuels-Reviews-E4517469.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Avant-TN-Reviews-E1548106.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Chanticleer-Holdings-Reviews-E361270.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/United-Technologies-Reviews-E697.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Madison-Square-Garden-Reviews-E16146.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Sphero-Reviews-E1011752.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Greenpro-Capital-Group-Reviews-E1984795.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/GreyLion-Reviews-E9496697.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Kaufman-Hall-Reviews-E335498.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Brookfield-Reviews-E5824.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Associated-Students-Inc-Reviews-E5829846.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/HCI-Equity-Partners-Reviews-E5371145.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/American-Outdoor-Brands-Reviews-E1536306.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Intel-Corporation-Reviews-E1519.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Folio-Financial-Inc-Reviews-E214427.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/BFC-Financial-Reviews-E23819.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/LensAR-Reviews-E451185.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Searchlight-Capital-Partners-Reviews-E1275302.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/GSK-Reviews-E3477.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/SYNNEX-Reviews-E12131.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Aaron-s-Reviews-E1083.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Aimco-Reviews-E24024.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Ameri100-A-TSP-Company-Reviews-E870394.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Platinum-Gold-Resource-Agency-Reviews-E5036743.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/OncoImmune-Reviews-E3220021.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Edwards-Lifesciences-Reviews-E11809.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Uber-Reviews-E575263.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/SinglePoint-TX-Reviews-E7255719.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/DTE-Energy-Reviews-E199.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Silver-Lake-Reviews-E11382.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/L-Brands-Reviews-E656.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/XPO-Reviews-E615153.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/International-Paper-Reviews-E356.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Moz-Group-Reviews-E8908447.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Arizona-Lithium-Reviews-E10664680.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Genie-Reviews-E1141469.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Dell-Technologies-Reviews-E1327.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/IBM-Reviews-E354.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Living-Beyond-Breast-Cancer-Reviews-E1635365.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/bluebird-bio-Reviews-E729710.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Realty-Income-Reviews-E3890.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Meredith-IA-Reviews-E6624707.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Vector-Marketing-Reviews-E26785.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/PTC-TX-Reviews-E5003588.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Neudesic-Reviews-E117212.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Constellation-Energy-Reviews-E75.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Zimmer-Biomet-Reviews-E1017414.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/BD-Reviews-E88.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Colfax-Reviews-E8723.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Pacific-Coast-Fruit-Products-Reviews-E3221460.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Vinco-Ventures-Reviews-E5811809.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Encompass-Health-Reviews-E1959649.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Xperi-Reviews-E1563777.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Bluerock-Residential-Growth-Reviews-E5334287.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/LGL-Group-Reviews-E927.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Fortune-Brands-Innovations-Reviews-E31.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/General-Electric-Company-Reviews-E10699498.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Jefferies-Reviews-E1546.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/iStar-Reviews-E1262.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Crane-Co-Reviews-E185.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Curative-Inc-Reviews-E3509458.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Petal-Reviews-E1911245.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Meta-Reviews-E40772.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/WISeKey-Reviews-E34853.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/ERM-Reviews-E13917.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/MDU-Resources-Reviews-E419.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/BorgWarner-Reviews-E1652.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/JS-Global-Lifestyle-Reviews-E10325329.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Netography-Reviews-E6894843.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Safe-and-Green-Holdings-Reviews-E8372972.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Kellanova-Reviews-E377.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Aramark-Reviews-E2716.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/W-P-Carey-Reviews-E10782644.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Alkermes-Reviews-E1176.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Rough-House-Games-Reviews-E10120883.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Worthington-Enterprises-Reviews-E2046.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Flex-Carpentry-Ltd-Reviews-E5200597.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/3M-Reviews-E446.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Inhibrx-Reviews-E3237539.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Illumina-Reviews-E11671.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Advanced-Flower-Capital-Gamma-Reviews-E5035901.htm</t>
+  </si>
+  <si>
+    <t>merge to Mercury in 2020</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Wyndham-Destinations-Reviews-E356401.htm</t>
+  </si>
+  <si>
+    <t>Wyndham Worldwide Corp to Destination</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Wyndham-Hotels-and-Resorts-Reviews-E2310228.htm</t>
+  </si>
+  <si>
+    <t>spun to new company</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/ServiceMaster-Brands-Reviews-E596.htm</t>
   </si>
 </sst>
 </file>
@@ -2565,7 +3408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2781,6 +3624,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2943,7 +3792,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -2960,6 +3809,19 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3020,9 +3882,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3060,7 +3922,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3166,7 +4028,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3308,7 +4170,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3316,23 +4178,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q202"/>
+  <dimension ref="A1:Q361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F202" workbookViewId="0">
+      <selection activeCell="J233" sqref="J233:L233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
-    <col min="11" max="11" width="81.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.81640625" customWidth="1"/>
+    <col min="11" max="11" width="81.1796875" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3385,7 +4247,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>958653020</v>
       </c>
@@ -3423,7 +4285,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1084001020</v>
       </c>
@@ -3461,7 +4323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1042093020</v>
       </c>
@@ -3499,7 +4361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>903763020</v>
       </c>
@@ -3537,7 +4399,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>892756020</v>
       </c>
@@ -3571,7 +4433,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>906356020</v>
       </c>
@@ -3609,7 +4471,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>997497020</v>
       </c>
@@ -3647,7 +4509,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1004652020</v>
       </c>
@@ -3685,7 +4547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1033777020</v>
       </c>
@@ -3723,7 +4585,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>904488020</v>
       </c>
@@ -3761,7 +4623,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>1061243020</v>
       </c>
@@ -3795,7 +4657,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1027400020</v>
       </c>
@@ -3833,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1024939020</v>
       </c>
@@ -3871,7 +4733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>982714020</v>
       </c>
@@ -3915,7 +4777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>937277020</v>
       </c>
@@ -3953,7 +4815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>1002408020</v>
       </c>
@@ -4001,7 +4863,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>1016041020</v>
       </c>
@@ -4039,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>1081959020</v>
       </c>
@@ -4077,7 +4939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1068976020</v>
       </c>
@@ -4115,7 +4977,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>1020416020</v>
       </c>
@@ -4153,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>1073206020</v>
       </c>
@@ -4191,7 +5053,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>1224268020</v>
       </c>
@@ -4238,7 +5100,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1052511020</v>
       </c>
@@ -4276,7 +5138,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1052020020</v>
       </c>
@@ -4314,7 +5176,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1221948020</v>
       </c>
@@ -4352,7 +5214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>1198395020</v>
       </c>
@@ -4388,7 +5250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1073581020</v>
       </c>
@@ -4426,7 +5288,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1228949020</v>
       </c>
@@ -4467,7 +5329,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1192517020</v>
       </c>
@@ -4514,7 +5376,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1256755020</v>
       </c>
@@ -4552,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1273248020</v>
       </c>
@@ -4590,7 +5452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>1219213020</v>
       </c>
@@ -4637,7 +5499,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>1264376020</v>
       </c>
@@ -4675,7 +5537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>1195012020</v>
       </c>
@@ -4716,7 +5578,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>1273272020</v>
       </c>
@@ -4754,7 +5616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>1273291020</v>
       </c>
@@ -4792,7 +5654,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>1279953020</v>
       </c>
@@ -4830,7 +5692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>1285502020</v>
       </c>
@@ -4868,7 +5730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>1337206020</v>
       </c>
@@ -4909,7 +5771,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>1336812020</v>
       </c>
@@ -4947,7 +5809,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>1379899020</v>
       </c>
@@ -4985,7 +5847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>1389126020</v>
       </c>
@@ -5023,7 +5885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>1387525020</v>
       </c>
@@ -5061,7 +5923,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>1410848020</v>
       </c>
@@ -5099,7 +5961,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>1378176020</v>
       </c>
@@ -5135,7 +5997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>1360301020</v>
       </c>
@@ -5173,7 +6035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>1361276020</v>
       </c>
@@ -5212,7 +6074,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>1370494020</v>
       </c>
@@ -5250,7 +6112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>1426370020</v>
       </c>
@@ -5288,7 +6150,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>1460786020</v>
       </c>
@@ -5329,7 +6191,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>1506840020</v>
       </c>
@@ -5379,7 +6241,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>1311101020</v>
       </c>
@@ -5417,7 +6279,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>1613492020</v>
       </c>
@@ -5455,7 +6317,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>1501311020</v>
       </c>
@@ -5493,7 +6355,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>1527753020</v>
       </c>
@@ -5540,7 +6402,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>1634892020</v>
       </c>
@@ -5578,7 +6440,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>1651997020</v>
       </c>
@@ -5619,7 +6481,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>1637399020</v>
       </c>
@@ -5657,7 +6519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>1678350020</v>
       </c>
@@ -5698,7 +6560,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>1626566020</v>
       </c>
@@ -5736,7 +6598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>1661511020</v>
       </c>
@@ -5774,7 +6636,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>1674219020</v>
       </c>
@@ -5815,7 +6677,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>1684048020</v>
       </c>
@@ -5853,7 +6715,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>1638823020</v>
       </c>
@@ -5891,7 +6753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>1730664020</v>
       </c>
@@ -5932,7 +6794,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>1769501020</v>
       </c>
@@ -5970,7 +6832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>1717019020</v>
       </c>
@@ -6008,7 +6870,7 @@
         <v>3467</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>1781948020</v>
       </c>
@@ -6046,7 +6908,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>1727788020</v>
       </c>
@@ -6084,7 +6946,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>1828427020</v>
       </c>
@@ -6122,7 +6984,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>1869388020</v>
       </c>
@@ -6160,7 +7022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>1890896020</v>
       </c>
@@ -6198,7 +7060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>1899036020</v>
       </c>
@@ -6239,7 +7101,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>1843920020</v>
       </c>
@@ -6280,7 +7142,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>1916095020</v>
       </c>
@@ -6321,7 +7183,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="13">
         <v>1911231020</v>
       </c>
@@ -6355,7 +7217,7 @@
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>1777138020</v>
       </c>
@@ -6393,7 +7255,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>1915098020</v>
       </c>
@@ -6431,7 +7293,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>1919100020</v>
       </c>
@@ -6469,7 +7331,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1921829020</v>
       </c>
@@ -6507,7 +7369,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>1925083020</v>
       </c>
@@ -6539,7 +7401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="9">
         <v>1921929020</v>
       </c>
@@ -6580,7 +7442,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>1934978020</v>
       </c>
@@ -6618,7 +7480,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>1955865020</v>
       </c>
@@ -6656,7 +7518,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>1955205020</v>
       </c>
@@ -6694,7 +7556,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>1970203020</v>
       </c>
@@ -6732,7 +7594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="11">
         <v>1974055020</v>
       </c>
@@ -6779,7 +7641,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>2081682020</v>
       </c>
@@ -6817,7 +7679,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>2037973020</v>
       </c>
@@ -6855,7 +7717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>2002678020</v>
       </c>
@@ -6893,7 +7755,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>2073486020</v>
       </c>
@@ -6931,7 +7793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>2069415020</v>
       </c>
@@ -6978,7 +7840,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>2122200020</v>
       </c>
@@ -7019,7 +7881,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>2122041020</v>
       </c>
@@ -7057,7 +7919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>2134950020</v>
       </c>
@@ -7095,7 +7957,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2215677020</v>
       </c>
@@ -7130,7 +7992,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>1963668020</v>
       </c>
@@ -7168,7 +8030,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>2284811020</v>
       </c>
@@ -7206,7 +8068,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>2270499020</v>
       </c>
@@ -7244,7 +8106,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>2240450020</v>
       </c>
@@ -7282,7 +8144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="9">
         <v>2340793020</v>
       </c>
@@ -7323,7 +8185,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="11">
         <v>2247301020</v>
       </c>
@@ -7364,7 +8226,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>2269869020</v>
       </c>
@@ -7402,7 +8264,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>2280274020</v>
       </c>
@@ -7440,7 +8302,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>2298785020</v>
       </c>
@@ -7478,7 +8340,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>2322236020</v>
       </c>
@@ -7516,7 +8378,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="11">
         <v>2329249020</v>
       </c>
@@ -7557,7 +8419,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="13">
         <v>2348102020</v>
       </c>
@@ -7591,7 +8453,7 @@
       <c r="K109" s="13"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>2328994020</v>
       </c>
@@ -7629,7 +8491,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>2284965020</v>
       </c>
@@ -7667,7 +8529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="9">
         <v>2318902020</v>
       </c>
@@ -7708,7 +8570,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>2368043020</v>
       </c>
@@ -7746,7 +8608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="11">
         <v>2428081020</v>
       </c>
@@ -7787,7 +8649,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>2429502020</v>
       </c>
@@ -7825,7 +8687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="9">
         <v>2345908020</v>
       </c>
@@ -7866,7 +8728,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>2334734020</v>
       </c>
@@ -7904,7 +8766,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="13">
         <v>2458646020</v>
       </c>
@@ -7943,7 +8805,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="11">
         <v>2379016020</v>
       </c>
@@ -7984,7 +8846,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>2481811020</v>
       </c>
@@ -8022,7 +8884,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="9">
         <v>2355953020</v>
       </c>
@@ -8063,7 +8925,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>2440857020</v>
       </c>
@@ -8101,7 +8963,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>2487032020</v>
       </c>
@@ -8139,7 +9001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>2438406020</v>
       </c>
@@ -8177,7 +9039,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="9">
         <v>2317826020</v>
       </c>
@@ -8224,7 +9086,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>2428061020</v>
       </c>
@@ -8262,7 +9124,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="9">
         <v>2546815020</v>
       </c>
@@ -8303,7 +9165,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>2459735020</v>
       </c>
@@ -8341,7 +9203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>2446365020</v>
       </c>
@@ -8379,7 +9241,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>2470936020</v>
       </c>
@@ -8417,7 +9279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>2468735020</v>
       </c>
@@ -8455,7 +9317,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>2507810020</v>
       </c>
@@ -8493,7 +9355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>9999999000</v>
       </c>
@@ -8531,7 +9393,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>2553535020</v>
       </c>
@@ -8569,7 +9431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>2465216020</v>
       </c>
@@ -8607,7 +9469,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="9">
         <v>2579746020</v>
       </c>
@@ -8648,7 +9510,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>2551064020</v>
       </c>
@@ -8686,7 +9548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>2569695020</v>
       </c>
@@ -8724,7 +9586,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>2582407020</v>
       </c>
@@ -8762,7 +9624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="13">
         <v>2643625020</v>
       </c>
@@ -8798,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="9">
         <v>2502261020</v>
       </c>
@@ -8839,7 +9701,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>2604709020</v>
       </c>
@@ -8877,7 +9739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>2563900020</v>
       </c>
@@ -8915,7 +9777,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="11">
         <v>2612302020</v>
       </c>
@@ -8956,7 +9818,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>2497761020</v>
       </c>
@@ -8997,7 +9859,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>2569669020</v>
       </c>
@@ -9035,7 +9897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="13">
         <v>2634481020</v>
       </c>
@@ -9074,7 +9936,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>2592526020</v>
       </c>
@@ -9112,7 +9974,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" s="9">
         <v>2627743020</v>
       </c>
@@ -9153,7 +10015,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>2568108020</v>
       </c>
@@ -9191,7 +10053,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="9">
         <v>2584546020</v>
       </c>
@@ -9228,7 +10090,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>2603563020</v>
       </c>
@@ -9266,7 +10128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" s="9">
         <v>2635780020</v>
       </c>
@@ -9307,7 +10169,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>2627635020</v>
       </c>
@@ -9354,7 +10216,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>2609908020</v>
       </c>
@@ -9392,7 +10254,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>2644735020</v>
       </c>
@@ -9430,7 +10292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>2714449020</v>
       </c>
@@ -9471,7 +10333,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="13">
         <v>2635681020</v>
       </c>
@@ -9510,7 +10372,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>2659304020</v>
       </c>
@@ -9548,7 +10410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>2661527020</v>
       </c>
@@ -9586,7 +10448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>2549249020</v>
       </c>
@@ -9624,7 +10486,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>2622309020</v>
       </c>
@@ -9662,7 +10524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>2632951020</v>
       </c>
@@ -9700,7 +10562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>2680811020</v>
       </c>
@@ -9738,7 +10600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>2696199020</v>
       </c>
@@ -9776,7 +10638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>2706323020</v>
       </c>
@@ -9814,7 +10676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>2691750020</v>
       </c>
@@ -9852,7 +10714,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>2603921020</v>
       </c>
@@ -9890,7 +10752,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="9">
         <v>2728015020</v>
       </c>
@@ -9931,7 +10793,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>2673601020</v>
       </c>
@@ -9969,7 +10831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>2690217020</v>
       </c>
@@ -10007,7 +10869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>2689710020</v>
       </c>
@@ -10045,7 +10907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>2682929020</v>
       </c>
@@ -10083,7 +10945,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>2696761020</v>
       </c>
@@ -10121,7 +10983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>2767110020</v>
       </c>
@@ -10159,7 +11021,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>2723108020</v>
       </c>
@@ -10197,7 +11059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>2719793020</v>
       </c>
@@ -10235,7 +11097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>2748351020</v>
       </c>
@@ -10273,7 +11135,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>2726717020</v>
       </c>
@@ -10311,7 +11173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>2787910020</v>
       </c>
@@ -10349,7 +11211,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>2713458020</v>
       </c>
@@ -10387,7 +11249,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="9">
         <v>2940516020</v>
       </c>
@@ -10428,7 +11290,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>2598500020</v>
       </c>
@@ -10466,7 +11328,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>2752282020</v>
       </c>
@@ -10504,7 +11366,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>2954488020</v>
       </c>
@@ -10542,7 +11404,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>2798647020</v>
       </c>
@@ -10580,7 +11442,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>2801932020</v>
       </c>
@@ -10618,7 +11480,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>2957646020</v>
       </c>
@@ -10656,7 +11518,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>2805584020</v>
       </c>
@@ -10694,7 +11556,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>9999999005</v>
       </c>
@@ -10732,7 +11594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>2822207020</v>
       </c>
@@ -10770,7 +11632,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>3032736020</v>
       </c>
@@ -10808,7 +11670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>3021104020</v>
       </c>
@@ -10846,7 +11708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>2915194020</v>
       </c>
@@ -10884,7 +11746,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>2855241020</v>
       </c>
@@ -10922,7 +11784,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>2962520020</v>
       </c>
@@ -10960,7 +11822,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>2953980020</v>
       </c>
@@ -10998,7 +11860,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="9">
         <v>3005901020</v>
       </c>
@@ -11039,7 +11901,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="9">
         <v>3063341020</v>
       </c>
@@ -11080,7 +11942,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>3113110020</v>
       </c>
@@ -11118,7 +11980,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="9">
         <v>3157900020</v>
       </c>
@@ -11159,7 +12021,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>3126486020</v>
       </c>
@@ -11195,14 +12057,3611 @@
       </c>
       <c r="L202" s="2">
         <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B203" s="16">
+        <v>42937</v>
+      </c>
+      <c r="C203" s="16">
+        <v>43102</v>
+      </c>
+      <c r="D203" s="17">
+        <v>9690.2029999999995</v>
+      </c>
+      <c r="H203" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="L203" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B204" s="16">
+        <v>43096</v>
+      </c>
+      <c r="C204" s="16">
+        <v>43104</v>
+      </c>
+      <c r="D204" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H204" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="L204" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B205" s="16">
+        <v>42926</v>
+      </c>
+      <c r="C205" s="16">
+        <v>43154</v>
+      </c>
+      <c r="D205" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H205" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="L205" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B206" s="16">
+        <v>43154</v>
+      </c>
+      <c r="C206" s="16">
+        <v>43154</v>
+      </c>
+      <c r="D206" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H206" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="J206" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="K206" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="L206" s="6">
+        <v>73</v>
+      </c>
+      <c r="M206" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B207" s="16">
+        <v>42817</v>
+      </c>
+      <c r="C207" s="16">
+        <v>43185</v>
+      </c>
+      <c r="D207" s="17">
+        <v>45.027999999999999</v>
+      </c>
+      <c r="H207" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="L207" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B208" s="16">
+        <v>42985</v>
+      </c>
+      <c r="C208" s="16">
+        <v>43185</v>
+      </c>
+      <c r="D208" s="17">
+        <v>476.30599999999998</v>
+      </c>
+      <c r="H208" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="K208" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="L208" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B209" s="16">
+        <v>43186</v>
+      </c>
+      <c r="C209" s="16">
+        <v>43186</v>
+      </c>
+      <c r="D209" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H209" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="L209" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="210" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B210" s="16">
+        <v>43193</v>
+      </c>
+      <c r="C210" s="16">
+        <v>43193</v>
+      </c>
+      <c r="D210" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H210" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="L210" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="211" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B211" s="16">
+        <v>42864</v>
+      </c>
+      <c r="C211" s="16">
+        <v>43220</v>
+      </c>
+      <c r="D211" s="17">
+        <v>4076.306</v>
+      </c>
+      <c r="H211" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="L211" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="212" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B212" s="16">
+        <v>43076</v>
+      </c>
+      <c r="C212" s="16">
+        <v>43229</v>
+      </c>
+      <c r="D212" s="17">
+        <v>3146.8119999999999</v>
+      </c>
+      <c r="H212" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="J212" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="K212" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="L212" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="213" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B213" s="16">
+        <v>43231</v>
+      </c>
+      <c r="C213" s="16">
+        <v>43231</v>
+      </c>
+      <c r="D213" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H213" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="J213" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="K213" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="L213" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B214" s="16">
+        <v>42753</v>
+      </c>
+      <c r="C214" s="16">
+        <v>43251</v>
+      </c>
+      <c r="D214" s="17">
+        <v>3174.3510000000001</v>
+      </c>
+      <c r="H214" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="J214" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="K214" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="L214" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="215" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B215" s="16">
+        <v>42968</v>
+      </c>
+      <c r="C215" s="16">
+        <v>43251</v>
+      </c>
+      <c r="D215" s="17">
+        <v>6593.6040000000003</v>
+      </c>
+      <c r="H215" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="J215" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L215" s="2">
+        <v>260</v>
+      </c>
+      <c r="M215" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="216" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B216" s="16">
+        <v>42949</v>
+      </c>
+      <c r="C216" s="16">
+        <v>43252</v>
+      </c>
+      <c r="D216" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H216" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="J216" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L216" s="2">
+        <v>76</v>
+      </c>
+      <c r="M216" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="217" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B217" s="16">
+        <v>42950</v>
+      </c>
+      <c r="C217" s="16">
+        <v>43252</v>
+      </c>
+      <c r="D217" s="17">
+        <v>2444.5010000000002</v>
+      </c>
+      <c r="H217" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="J217" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="K217" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="L217" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B218" s="16">
+        <v>43108</v>
+      </c>
+      <c r="C218" s="16">
+        <v>43258</v>
+      </c>
+      <c r="D218" s="17">
+        <v>32189.576000000001</v>
+      </c>
+      <c r="H218" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="J218" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="K218" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="L218" s="13">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="219" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B219" s="16">
+        <v>43083</v>
+      </c>
+      <c r="C219" s="16">
+        <v>43282</v>
+      </c>
+      <c r="D219" s="17">
+        <v>2509.1840000000002</v>
+      </c>
+      <c r="H219" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="J219" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="K219" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="L219" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B220" s="16">
+        <v>43208</v>
+      </c>
+      <c r="C220" s="16">
+        <v>43319</v>
+      </c>
+      <c r="D220" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H220" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="J220" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="K220" s="20" t="s">
+        <v>955</v>
+      </c>
+      <c r="L220" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B221" s="16">
+        <v>43089</v>
+      </c>
+      <c r="C221" s="16">
+        <v>43322</v>
+      </c>
+      <c r="D221" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H221" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="J221" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="K221" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="L221" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B222" s="16">
+        <v>43332</v>
+      </c>
+      <c r="C222" s="16">
+        <v>43332</v>
+      </c>
+      <c r="D222" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H222" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="J222" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="K222" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="L222" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="223" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B223" s="16">
+        <v>43207</v>
+      </c>
+      <c r="C223" s="16">
+        <v>43347</v>
+      </c>
+      <c r="D223" s="17">
+        <v>1.754</v>
+      </c>
+      <c r="H223" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="J223" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="K223" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="L223" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B224" s="16">
+        <v>43221</v>
+      </c>
+      <c r="C224" s="16">
+        <v>43357</v>
+      </c>
+      <c r="D224" s="17">
+        <v>1521.8910000000001</v>
+      </c>
+      <c r="H224" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="J224" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="K224" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="L224" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B225" s="16">
+        <v>43360</v>
+      </c>
+      <c r="C225" s="16">
+        <v>43360</v>
+      </c>
+      <c r="D225" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H225" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="J225" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="K225" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="L225" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B226" s="16">
+        <v>42942</v>
+      </c>
+      <c r="C226" s="16">
+        <v>43374</v>
+      </c>
+      <c r="D226" s="17">
+        <v>2847.1770000000001</v>
+      </c>
+      <c r="H226" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="J226" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="K226" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L226" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B227" s="16">
+        <v>43018</v>
+      </c>
+      <c r="C227" s="16">
+        <v>43374</v>
+      </c>
+      <c r="D227" s="17">
+        <v>2770.7950000000001</v>
+      </c>
+      <c r="H227" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="J227" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="K227" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="L227" s="2">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B228" s="16">
+        <v>43053</v>
+      </c>
+      <c r="C228" s="16">
+        <v>43384</v>
+      </c>
+      <c r="D228" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H228" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="J228" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="K228" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="L228" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B229" s="16">
+        <v>43018</v>
+      </c>
+      <c r="C229" s="16">
+        <v>43402</v>
+      </c>
+      <c r="D229" s="17">
+        <v>3254.1219999999998</v>
+      </c>
+      <c r="H229" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="J229" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="K229" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="L229" s="2">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B230" s="16">
+        <v>43081</v>
+      </c>
+      <c r="C230" s="16">
+        <v>43405</v>
+      </c>
+      <c r="D230" s="17">
+        <v>1381.35</v>
+      </c>
+      <c r="H230" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="J230" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="K230" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="L230" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B231" s="16">
+        <v>43152</v>
+      </c>
+      <c r="C231" s="16">
+        <v>43416</v>
+      </c>
+      <c r="D231" s="17">
+        <v>11700.099</v>
+      </c>
+      <c r="H231" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="J231" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="K231" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="L231" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B232" s="16">
+        <v>43140</v>
+      </c>
+      <c r="C232" s="16">
+        <v>43434</v>
+      </c>
+      <c r="D232" s="17">
+        <v>1104.0440000000001</v>
+      </c>
+      <c r="H232" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="J232" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="K232" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="L232" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B233" s="16">
+        <v>43433</v>
+      </c>
+      <c r="C233" s="16">
+        <v>43465</v>
+      </c>
+      <c r="D233" s="17">
+        <v>623.75</v>
+      </c>
+      <c r="H233" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="J233" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="K233" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="L233" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B234" s="16">
+        <v>43493</v>
+      </c>
+      <c r="C234" s="16">
+        <v>43493</v>
+      </c>
+      <c r="D234" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H234" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="J234" t="s">
+        <v>820</v>
+      </c>
+      <c r="K234" t="s">
+        <v>966</v>
+      </c>
+      <c r="L234">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="235" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B235" s="16">
+        <v>43507</v>
+      </c>
+      <c r="C235" s="16">
+        <v>43525</v>
+      </c>
+      <c r="D235" s="17">
+        <v>1592.4649999999999</v>
+      </c>
+      <c r="H235" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="J235" t="s">
+        <v>821</v>
+      </c>
+      <c r="K235" t="s">
+        <v>967</v>
+      </c>
+      <c r="L235">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B236" s="16">
+        <v>43536</v>
+      </c>
+      <c r="C236" s="16">
+        <v>43536</v>
+      </c>
+      <c r="D236" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H236" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="J236" t="s">
+        <v>822</v>
+      </c>
+      <c r="K236" t="s">
+        <v>968</v>
+      </c>
+      <c r="L236">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="237" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B237" s="16">
+        <v>43083</v>
+      </c>
+      <c r="C237" s="16">
+        <v>43543</v>
+      </c>
+      <c r="D237" s="17">
+        <v>22869.77</v>
+      </c>
+      <c r="H237" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="J237" t="s">
+        <v>823</v>
+      </c>
+      <c r="K237" t="s">
+        <v>969</v>
+      </c>
+      <c r="L237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B238" s="16">
+        <v>43221</v>
+      </c>
+      <c r="C238" s="16">
+        <v>43556</v>
+      </c>
+      <c r="D238" s="17">
+        <v>225.303</v>
+      </c>
+      <c r="H238" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="J238" t="s">
+        <v>824</v>
+      </c>
+      <c r="K238" t="s">
+        <v>970</v>
+      </c>
+      <c r="L238">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B239" s="16">
+        <v>43349</v>
+      </c>
+      <c r="C239" s="16">
+        <v>43556</v>
+      </c>
+      <c r="D239" s="17">
+        <v>57339.923000000003</v>
+      </c>
+      <c r="H239" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="J239" t="s">
+        <v>825</v>
+      </c>
+      <c r="K239" t="s">
+        <v>971</v>
+      </c>
+      <c r="L239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B240" s="16">
+        <v>43556</v>
+      </c>
+      <c r="C240" s="16">
+        <v>43556</v>
+      </c>
+      <c r="D240" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H240" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="J240" t="s">
+        <v>826</v>
+      </c>
+      <c r="K240" t="s">
+        <v>972</v>
+      </c>
+      <c r="L240">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B241" s="16">
+        <v>43493</v>
+      </c>
+      <c r="C241" s="16">
+        <v>43557</v>
+      </c>
+      <c r="D241" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H241" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="J241" t="s">
+        <v>827</v>
+      </c>
+      <c r="K241" t="s">
+        <v>973</v>
+      </c>
+      <c r="L241">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B242" s="16">
+        <v>43325</v>
+      </c>
+      <c r="C242" s="16">
+        <v>43608</v>
+      </c>
+      <c r="D242" s="17">
+        <v>2328.7710000000002</v>
+      </c>
+      <c r="H242" s="18" t="s">
+        <v>828</v>
+      </c>
+      <c r="J242" t="s">
+        <v>828</v>
+      </c>
+      <c r="K242" t="s">
+        <v>974</v>
+      </c>
+      <c r="L242">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B243" s="16">
+        <v>43349</v>
+      </c>
+      <c r="C243" s="16">
+        <v>43617</v>
+      </c>
+      <c r="D243" s="17">
+        <v>18578.098999999998</v>
+      </c>
+      <c r="H243" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="J243" t="s">
+        <v>825</v>
+      </c>
+      <c r="K243" t="s">
+        <v>971</v>
+      </c>
+      <c r="L243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B244" s="16">
+        <v>43622</v>
+      </c>
+      <c r="C244" s="16">
+        <v>43622</v>
+      </c>
+      <c r="D244" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H244" s="18" t="s">
+        <v>829</v>
+      </c>
+      <c r="J244" t="s">
+        <v>829</v>
+      </c>
+      <c r="K244" t="s">
+        <v>975</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B245" s="16">
+        <v>43628</v>
+      </c>
+      <c r="C245" s="16">
+        <v>43628</v>
+      </c>
+      <c r="D245" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H245" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="J245" t="s">
+        <v>830</v>
+      </c>
+      <c r="K245" t="s">
+        <v>976</v>
+      </c>
+      <c r="L245">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B246" s="16">
+        <v>43158</v>
+      </c>
+      <c r="C246" s="16">
+        <v>43644</v>
+      </c>
+      <c r="D246" s="17">
+        <v>5558.96</v>
+      </c>
+      <c r="H246" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="J246" t="s">
+        <v>831</v>
+      </c>
+      <c r="K246" t="s">
+        <v>977</v>
+      </c>
+      <c r="L246">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B247" s="16">
+        <v>43621</v>
+      </c>
+      <c r="C247" s="16">
+        <v>43647</v>
+      </c>
+      <c r="D247" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H247" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="J247" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="K247" s="13"/>
+      <c r="L247" s="13"/>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B248" s="16">
+        <v>43472</v>
+      </c>
+      <c r="C248" s="16">
+        <v>43663</v>
+      </c>
+      <c r="D248" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H248" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="J248" t="s">
+        <v>833</v>
+      </c>
+      <c r="K248" t="s">
+        <v>978</v>
+      </c>
+      <c r="L248">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B249" s="16">
+        <v>43692</v>
+      </c>
+      <c r="C249" s="16">
+        <v>43692</v>
+      </c>
+      <c r="D249" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H249" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="J249" t="s">
+        <v>834</v>
+      </c>
+      <c r="K249" t="s">
+        <v>979</v>
+      </c>
+      <c r="L249">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B250" s="16">
+        <v>43714</v>
+      </c>
+      <c r="C250" s="16">
+        <v>43714</v>
+      </c>
+      <c r="D250" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H250" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="J250" t="s">
+        <v>835</v>
+      </c>
+      <c r="K250" t="s">
+        <v>980</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B251" s="16">
+        <v>43591</v>
+      </c>
+      <c r="C251" s="16">
+        <v>43739</v>
+      </c>
+      <c r="D251" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H251" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="J251" t="s">
+        <v>836</v>
+      </c>
+      <c r="K251" t="s">
+        <v>667</v>
+      </c>
+      <c r="L251">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B252" s="16">
+        <v>43423</v>
+      </c>
+      <c r="C252" s="16">
+        <v>43740</v>
+      </c>
+      <c r="D252" s="17">
+        <v>634.39800000000002</v>
+      </c>
+      <c r="H252" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="J252" t="s">
+        <v>837</v>
+      </c>
+      <c r="K252" t="s">
+        <v>981</v>
+      </c>
+      <c r="L252">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="253" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B253" s="16">
+        <v>43756</v>
+      </c>
+      <c r="C253" s="16">
+        <v>43756</v>
+      </c>
+      <c r="D253" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H253" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="J253" t="s">
+        <v>838</v>
+      </c>
+      <c r="K253" t="s">
+        <v>982</v>
+      </c>
+      <c r="L253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B254" s="16">
+        <v>43760</v>
+      </c>
+      <c r="C254" s="16">
+        <v>43760</v>
+      </c>
+      <c r="D254" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H254" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="J254" t="s">
+        <v>839</v>
+      </c>
+      <c r="K254" t="s">
+        <v>983</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B255" s="16">
+        <v>43661</v>
+      </c>
+      <c r="C255" s="16">
+        <v>43798</v>
+      </c>
+      <c r="D255" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H255" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="J255" t="s">
+        <v>840</v>
+      </c>
+      <c r="K255" t="s">
+        <v>984</v>
+      </c>
+      <c r="L255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B256" s="16">
+        <v>43866</v>
+      </c>
+      <c r="C256" s="16">
+        <v>43866</v>
+      </c>
+      <c r="D256" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H256" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="J256" t="s">
+        <v>841</v>
+      </c>
+      <c r="K256" t="s">
+        <v>985</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B257" s="16">
+        <v>43377</v>
+      </c>
+      <c r="C257" s="16">
+        <v>43875</v>
+      </c>
+      <c r="D257" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H257" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="J257" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="258" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B258" s="16">
+        <v>43733</v>
+      </c>
+      <c r="C258" s="16">
+        <v>43921</v>
+      </c>
+      <c r="D258" s="17">
+        <v>4782.4319999999998</v>
+      </c>
+      <c r="H258" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="J258" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="259" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B259" s="16">
+        <v>43748</v>
+      </c>
+      <c r="C259" s="16">
+        <v>43922</v>
+      </c>
+      <c r="D259" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H259" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="J259" t="s">
+        <v>844</v>
+      </c>
+      <c r="K259" t="s">
+        <v>986</v>
+      </c>
+      <c r="L259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B260" s="16">
+        <v>43502</v>
+      </c>
+      <c r="C260" s="16">
+        <v>43922</v>
+      </c>
+      <c r="D260" s="17">
+        <v>1544.4280000000001</v>
+      </c>
+      <c r="H260" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="J260" t="s">
+        <v>845</v>
+      </c>
+      <c r="K260" t="s">
+        <v>700</v>
+      </c>
+      <c r="L260">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="261" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B261" s="16">
+        <v>43430</v>
+      </c>
+      <c r="C261" s="16">
+        <v>43924</v>
+      </c>
+      <c r="D261" s="17">
+        <v>20739.681</v>
+      </c>
+      <c r="H261" s="18" t="s">
+        <v>846</v>
+      </c>
+      <c r="J261" t="s">
+        <v>846</v>
+      </c>
+      <c r="K261" t="s">
+        <v>987</v>
+      </c>
+      <c r="L261">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="262" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B262" s="16">
+        <v>43430</v>
+      </c>
+      <c r="C262" s="16">
+        <v>43924</v>
+      </c>
+      <c r="D262" s="17">
+        <v>24455.305</v>
+      </c>
+      <c r="H262" s="18" t="s">
+        <v>846</v>
+      </c>
+      <c r="J262" t="s">
+        <v>846</v>
+      </c>
+      <c r="K262" t="s">
+        <v>987</v>
+      </c>
+      <c r="L262">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="263" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B263" s="16">
+        <v>43278</v>
+      </c>
+      <c r="C263" s="16">
+        <v>43941</v>
+      </c>
+      <c r="D263" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H263" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="J263" t="s">
+        <v>847</v>
+      </c>
+      <c r="K263" t="s">
+        <v>988</v>
+      </c>
+      <c r="L263">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="264" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B264" s="16">
+        <v>43971</v>
+      </c>
+      <c r="C264" s="16">
+        <v>43971</v>
+      </c>
+      <c r="D264" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H264" s="18" t="s">
+        <v>848</v>
+      </c>
+      <c r="J264" t="s">
+        <v>848</v>
+      </c>
+      <c r="K264" t="s">
+        <v>989</v>
+      </c>
+      <c r="L264">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B265" s="16">
+        <v>43984</v>
+      </c>
+      <c r="C265" s="16">
+        <v>43984</v>
+      </c>
+      <c r="D265" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H265" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="J265" t="s">
+        <v>849</v>
+      </c>
+      <c r="K265" t="s">
+        <v>990</v>
+      </c>
+      <c r="L265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B266" s="16">
+        <v>43998</v>
+      </c>
+      <c r="C266" s="16">
+        <v>43998</v>
+      </c>
+      <c r="D266" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H266" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="J266" t="s">
+        <v>850</v>
+      </c>
+      <c r="K266" t="s">
+        <v>991</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B267" s="16">
+        <v>44007</v>
+      </c>
+      <c r="C267" s="16">
+        <v>44007</v>
+      </c>
+      <c r="D267" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H267" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="J267" t="s">
+        <v>851</v>
+      </c>
+      <c r="K267" t="s">
+        <v>992</v>
+      </c>
+      <c r="L267">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B268" s="16">
+        <v>43684</v>
+      </c>
+      <c r="C268" s="16">
+        <v>44012</v>
+      </c>
+      <c r="D268" s="17">
+        <v>25239.332999999999</v>
+      </c>
+      <c r="H268" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="J268" t="s">
+        <v>852</v>
+      </c>
+      <c r="K268" t="s">
+        <v>618</v>
+      </c>
+      <c r="L268">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="269" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B269" s="16">
+        <v>43780</v>
+      </c>
+      <c r="C269" s="16">
+        <v>44042</v>
+      </c>
+      <c r="D269" s="17">
+        <v>529.42499999999995</v>
+      </c>
+      <c r="H269" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="J269" t="s">
+        <v>853</v>
+      </c>
+      <c r="K269" t="s">
+        <v>993</v>
+      </c>
+      <c r="L269">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="270" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B270" s="16">
+        <v>43906</v>
+      </c>
+      <c r="C270" s="16">
+        <v>44048</v>
+      </c>
+      <c r="D270" s="17">
+        <v>143.94999999999999</v>
+      </c>
+      <c r="H270" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="J270" t="s">
+        <v>854</v>
+      </c>
+      <c r="K270" t="s">
+        <v>994</v>
+      </c>
+      <c r="L270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B271" s="16">
+        <v>44039</v>
+      </c>
+      <c r="C271" s="16">
+        <v>44050</v>
+      </c>
+      <c r="D271" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H271" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="J271" t="s">
+        <v>855</v>
+      </c>
+      <c r="K271" t="s">
+        <v>995</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B272" s="16">
+        <v>43782</v>
+      </c>
+      <c r="C272" s="16">
+        <v>44067</v>
+      </c>
+      <c r="D272" s="17">
+        <v>271.11700000000002</v>
+      </c>
+      <c r="H272" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="J272" t="s">
+        <v>856</v>
+      </c>
+      <c r="K272" t="s">
+        <v>996</v>
+      </c>
+      <c r="L272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B273" s="16">
+        <v>44093</v>
+      </c>
+      <c r="C273" s="16">
+        <v>44093</v>
+      </c>
+      <c r="D273" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H273" s="18" t="s">
+        <v>857</v>
+      </c>
+      <c r="J273" t="s">
+        <v>857</v>
+      </c>
+      <c r="K273" t="s">
+        <v>997</v>
+      </c>
+      <c r="L273">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="274" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B274" s="16">
+        <v>44092</v>
+      </c>
+      <c r="C274" s="16">
+        <v>44095</v>
+      </c>
+      <c r="D274" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H274" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="J274" t="s">
+        <v>858</v>
+      </c>
+      <c r="K274" t="s">
+        <v>998</v>
+      </c>
+      <c r="L274">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B275" s="16">
+        <v>43999</v>
+      </c>
+      <c r="C275" s="16">
+        <v>44104</v>
+      </c>
+      <c r="D275" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H275" s="18" t="s">
+        <v>859</v>
+      </c>
+      <c r="J275" t="s">
+        <v>859</v>
+      </c>
+      <c r="K275" t="s">
+        <v>999</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B276" s="16">
+        <v>44069</v>
+      </c>
+      <c r="C276" s="16">
+        <v>44106</v>
+      </c>
+      <c r="D276" s="17">
+        <v>5.9189999999999996</v>
+      </c>
+      <c r="H276" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="J276" t="s">
+        <v>860</v>
+      </c>
+      <c r="K276" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B277" s="16">
+        <v>43712</v>
+      </c>
+      <c r="C277" s="16">
+        <v>44113</v>
+      </c>
+      <c r="D277" s="17">
+        <v>3805.0740000000001</v>
+      </c>
+      <c r="H277" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="J277" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="278" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B278" s="16">
+        <v>44125</v>
+      </c>
+      <c r="C278" s="16">
+        <v>44125</v>
+      </c>
+      <c r="D278" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H278" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="J278" t="s">
+        <v>862</v>
+      </c>
+      <c r="K278" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B279" s="16">
+        <v>44012</v>
+      </c>
+      <c r="C279" s="16">
+        <v>44151</v>
+      </c>
+      <c r="D279" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H279" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="J279" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="280" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B280" s="16">
+        <v>44154</v>
+      </c>
+      <c r="C280" s="16">
+        <v>44154</v>
+      </c>
+      <c r="D280" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H280" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="J280" t="s">
+        <v>864</v>
+      </c>
+      <c r="K280" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L280">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="281" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B281" s="16">
+        <v>43839</v>
+      </c>
+      <c r="C281" s="16">
+        <v>44166</v>
+      </c>
+      <c r="D281" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H281" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="J281" t="s">
+        <v>865</v>
+      </c>
+      <c r="K281" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L281">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="282" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B282" s="16">
+        <v>44041</v>
+      </c>
+      <c r="C282" s="16">
+        <v>44166</v>
+      </c>
+      <c r="D282" s="17">
+        <v>621.86199999999997</v>
+      </c>
+      <c r="H282" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="J282" t="s">
+        <v>866</v>
+      </c>
+      <c r="K282" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L282">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="283" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B283" s="16">
+        <v>44088</v>
+      </c>
+      <c r="C283" s="16">
+        <v>44180</v>
+      </c>
+      <c r="D283" s="17">
+        <v>9525.81</v>
+      </c>
+      <c r="H283" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="J283" t="s">
+        <v>867</v>
+      </c>
+      <c r="K283" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L283">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="284" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B284" s="16">
+        <v>43843</v>
+      </c>
+      <c r="C284" s="16">
+        <v>44196</v>
+      </c>
+      <c r="D284" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H284" s="18" t="s">
+        <v>868</v>
+      </c>
+      <c r="J284" t="s">
+        <v>868</v>
+      </c>
+      <c r="K284" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L284">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B285" s="16">
+        <v>44109</v>
+      </c>
+      <c r="C285" s="16">
+        <v>44196</v>
+      </c>
+      <c r="D285" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H285" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="J285" t="s">
+        <v>869</v>
+      </c>
+      <c r="K285" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B286" s="16">
+        <v>44158</v>
+      </c>
+      <c r="C286" s="16">
+        <v>44196</v>
+      </c>
+      <c r="D286" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H286" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="J286" t="s">
+        <v>870</v>
+      </c>
+      <c r="K286" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B287" s="16">
+        <v>43803</v>
+      </c>
+      <c r="C287" s="16">
+        <v>44228</v>
+      </c>
+      <c r="D287" s="17">
+        <v>2453.4639999999999</v>
+      </c>
+      <c r="H287" s="18" t="s">
+        <v>871</v>
+      </c>
+      <c r="J287" t="s">
+        <v>871</v>
+      </c>
+      <c r="K287" t="s">
+        <v>765</v>
+      </c>
+      <c r="L287">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="288" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B288" s="16">
+        <v>44237</v>
+      </c>
+      <c r="C288" s="16">
+        <v>44237</v>
+      </c>
+      <c r="D288" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H288" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="J288" t="s">
+        <v>872</v>
+      </c>
+      <c r="K288" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L288">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="289" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B289" s="16">
+        <v>44257</v>
+      </c>
+      <c r="C289" s="16">
+        <v>44257</v>
+      </c>
+      <c r="D289" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H289" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="J289" t="s">
+        <v>873</v>
+      </c>
+      <c r="K289" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L289">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="290" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B290" s="16">
+        <v>44281</v>
+      </c>
+      <c r="C290" s="16">
+        <v>44293</v>
+      </c>
+      <c r="D290" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H290" s="18" t="s">
+        <v>874</v>
+      </c>
+      <c r="J290" t="s">
+        <v>874</v>
+      </c>
+      <c r="K290" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B291" s="16">
+        <v>44187</v>
+      </c>
+      <c r="C291" s="16">
+        <v>44341</v>
+      </c>
+      <c r="D291" s="17">
+        <v>7028.7460000000001</v>
+      </c>
+      <c r="H291" s="18" t="s">
+        <v>875</v>
+      </c>
+      <c r="J291" t="s">
+        <v>875</v>
+      </c>
+      <c r="K291" t="s">
+        <v>618</v>
+      </c>
+      <c r="L291">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="292" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B292" s="16">
+        <v>43866</v>
+      </c>
+      <c r="C292" s="16">
+        <v>44349</v>
+      </c>
+      <c r="D292" s="17">
+        <v>9750.3770000000004</v>
+      </c>
+      <c r="H292" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="J292" t="s">
+        <v>876</v>
+      </c>
+      <c r="K292" t="s">
+        <v>606</v>
+      </c>
+      <c r="L292">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="293" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B293" s="16">
+        <v>44131</v>
+      </c>
+      <c r="C293" s="16">
+        <v>44378</v>
+      </c>
+      <c r="D293" s="17">
+        <v>6940.6980000000003</v>
+      </c>
+      <c r="H293" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="J293" t="s">
+        <v>877</v>
+      </c>
+      <c r="K293" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L293">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="294" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B294" s="16">
+        <v>44049</v>
+      </c>
+      <c r="C294" s="16">
+        <v>44396</v>
+      </c>
+      <c r="D294" s="17">
+        <v>2531.6959999999999</v>
+      </c>
+      <c r="H294" s="18" t="s">
+        <v>878</v>
+      </c>
+      <c r="J294" t="s">
+        <v>878</v>
+      </c>
+      <c r="K294" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L294">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B295" s="16">
+        <v>43955</v>
+      </c>
+      <c r="C295" s="16">
+        <v>44410</v>
+      </c>
+      <c r="D295" s="17">
+        <v>3973.8960000000002</v>
+      </c>
+      <c r="H295" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="J295" t="s">
+        <v>879</v>
+      </c>
+      <c r="K295" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L295">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="296" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B296" s="16">
+        <v>44167</v>
+      </c>
+      <c r="C296" s="16">
+        <v>44410</v>
+      </c>
+      <c r="D296" s="17">
+        <v>7700.9520000000002</v>
+      </c>
+      <c r="H296" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="J296" t="s">
+        <v>880</v>
+      </c>
+      <c r="K296" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L296">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="297" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B297" s="16">
+        <v>43881</v>
+      </c>
+      <c r="C297" s="16">
+        <v>44411</v>
+      </c>
+      <c r="D297" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H297" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="J297" t="s">
+        <v>879</v>
+      </c>
+      <c r="K297" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L297">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="298" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B298" s="16">
+        <v>44168</v>
+      </c>
+      <c r="C298" s="16">
+        <v>44470</v>
+      </c>
+      <c r="D298" s="17">
+        <v>1169.204</v>
+      </c>
+      <c r="H298" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="J298" t="s">
+        <v>881</v>
+      </c>
+      <c r="K298" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L298">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="299" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B299" s="16">
+        <v>44305</v>
+      </c>
+      <c r="C299" s="16">
+        <v>44476</v>
+      </c>
+      <c r="D299" s="17">
+        <v>1034.3330000000001</v>
+      </c>
+      <c r="H299" s="18" t="s">
+        <v>882</v>
+      </c>
+      <c r="J299" t="s">
+        <v>882</v>
+      </c>
+      <c r="K299" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B300" s="16">
+        <v>44350</v>
+      </c>
+      <c r="C300" s="16">
+        <v>44477</v>
+      </c>
+      <c r="D300" s="17">
+        <v>0.221</v>
+      </c>
+      <c r="H300" s="18" t="s">
+        <v>883</v>
+      </c>
+      <c r="J300" t="s">
+        <v>883</v>
+      </c>
+      <c r="K300" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B301" s="16">
+        <v>44483</v>
+      </c>
+      <c r="C301" s="16">
+        <v>44483</v>
+      </c>
+      <c r="D301" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H301" s="18" t="s">
+        <v>884</v>
+      </c>
+      <c r="J301" t="s">
+        <v>884</v>
+      </c>
+      <c r="K301" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L301">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="302" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B302" s="16">
+        <v>44027</v>
+      </c>
+      <c r="C302" s="16">
+        <v>44501</v>
+      </c>
+      <c r="D302" s="17">
+        <v>51259.497000000003</v>
+      </c>
+      <c r="H302" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="J302" t="s">
+        <v>885</v>
+      </c>
+      <c r="K302" t="s">
+        <v>1020</v>
+      </c>
+      <c r="L302">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="303" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B303" s="16">
+        <v>44112</v>
+      </c>
+      <c r="C303" s="16">
+        <v>44503</v>
+      </c>
+      <c r="D303" s="17">
+        <v>5111.7619999999997</v>
+      </c>
+      <c r="H303" s="18" t="s">
+        <v>886</v>
+      </c>
+      <c r="J303" t="s">
+        <v>886</v>
+      </c>
+      <c r="K303" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L303">
+        <v>10430</v>
+      </c>
+    </row>
+    <row r="304" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B304" s="16">
+        <v>44504</v>
+      </c>
+      <c r="C304" s="16">
+        <v>44504</v>
+      </c>
+      <c r="D304" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H304" s="18" t="s">
+        <v>887</v>
+      </c>
+      <c r="J304" t="s">
+        <v>887</v>
+      </c>
+      <c r="K304" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B305" s="16">
+        <v>44207</v>
+      </c>
+      <c r="C305" s="16">
+        <v>44505</v>
+      </c>
+      <c r="D305" s="17">
+        <v>757.32299999999998</v>
+      </c>
+      <c r="H305" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="J305" t="s">
+        <v>888</v>
+      </c>
+      <c r="K305" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L305">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B306" s="16">
+        <v>44315</v>
+      </c>
+      <c r="C306" s="16">
+        <v>44515</v>
+      </c>
+      <c r="D306" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H306" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="J306" t="s">
+        <v>889</v>
+      </c>
+      <c r="K306" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L306">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B307" s="16">
+        <v>44319</v>
+      </c>
+      <c r="C307" s="16">
+        <v>44531</v>
+      </c>
+      <c r="D307" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H307" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="J307" t="s">
+        <v>890</v>
+      </c>
+      <c r="K307" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B308" s="16">
+        <v>44508</v>
+      </c>
+      <c r="C308" s="16">
+        <v>44560</v>
+      </c>
+      <c r="D308" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H308" s="18" t="s">
+        <v>891</v>
+      </c>
+      <c r="J308" t="s">
+        <v>891</v>
+      </c>
+      <c r="K308" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L308">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="309" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B309" s="16">
+        <v>44573</v>
+      </c>
+      <c r="C309" s="16">
+        <v>44573</v>
+      </c>
+      <c r="D309" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H309" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="J309" t="s">
+        <v>892</v>
+      </c>
+      <c r="K309" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B310" s="16">
+        <v>44484</v>
+      </c>
+      <c r="C310" s="16">
+        <v>44582</v>
+      </c>
+      <c r="D310" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H310" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="J310" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="311" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B311" s="16">
+        <v>44587</v>
+      </c>
+      <c r="C311" s="16">
+        <v>44587</v>
+      </c>
+      <c r="D311" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H311" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="J311" t="s">
+        <v>894</v>
+      </c>
+      <c r="K311" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L311">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="312" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B312" s="16">
+        <v>44251</v>
+      </c>
+      <c r="C312" s="16">
+        <v>44593</v>
+      </c>
+      <c r="D312" s="17">
+        <v>23945.17</v>
+      </c>
+      <c r="H312" s="18" t="s">
+        <v>895</v>
+      </c>
+      <c r="J312" t="s">
+        <v>895</v>
+      </c>
+      <c r="K312" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L312">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="313" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B313" s="16">
+        <v>44232</v>
+      </c>
+      <c r="C313" s="16">
+        <v>44621</v>
+      </c>
+      <c r="D313" s="17">
+        <v>796.41499999999996</v>
+      </c>
+      <c r="H313" s="18" t="s">
+        <v>896</v>
+      </c>
+      <c r="J313" t="s">
+        <v>896</v>
+      </c>
+      <c r="K313" t="s">
+        <v>1030</v>
+      </c>
+      <c r="L313">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="314" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B314" s="16">
+        <v>44410</v>
+      </c>
+      <c r="C314" s="16">
+        <v>44635</v>
+      </c>
+      <c r="D314" s="17">
+        <v>765.53800000000001</v>
+      </c>
+      <c r="H314" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="J314" t="s">
+        <v>853</v>
+      </c>
+      <c r="K314" t="s">
+        <v>993</v>
+      </c>
+      <c r="L314">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="315" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B315" s="16">
+        <v>44322</v>
+      </c>
+      <c r="C315" s="16">
+        <v>44652</v>
+      </c>
+      <c r="D315" s="17">
+        <v>1732.5440000000001</v>
+      </c>
+      <c r="H315" s="18" t="s">
+        <v>897</v>
+      </c>
+      <c r="J315" t="s">
+        <v>897</v>
+      </c>
+      <c r="K315" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L315">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="316" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B316" s="16">
+        <v>44259</v>
+      </c>
+      <c r="C316" s="16">
+        <v>44655</v>
+      </c>
+      <c r="D316" s="17">
+        <v>2423.4290000000001</v>
+      </c>
+      <c r="H316" s="18" t="s">
+        <v>898</v>
+      </c>
+      <c r="J316" t="s">
+        <v>898</v>
+      </c>
+      <c r="K316" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B317" s="16">
+        <v>44671</v>
+      </c>
+      <c r="C317" s="16">
+        <v>44671</v>
+      </c>
+      <c r="D317" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H317" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="J317" t="s">
+        <v>899</v>
+      </c>
+      <c r="K317" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B318" s="16">
+        <v>44677</v>
+      </c>
+      <c r="C318" s="16">
+        <v>44677</v>
+      </c>
+      <c r="D318" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H318" s="18" t="s">
+        <v>900</v>
+      </c>
+      <c r="J318" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="319" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B319" s="16">
+        <v>44508</v>
+      </c>
+      <c r="C319" s="16">
+        <v>44742</v>
+      </c>
+      <c r="D319" s="17">
+        <v>38.174999999999997</v>
+      </c>
+      <c r="H319" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="J319" t="s">
+        <v>901</v>
+      </c>
+      <c r="K319" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B320" s="16">
+        <v>44580</v>
+      </c>
+      <c r="C320" s="16">
+        <v>44743</v>
+      </c>
+      <c r="D320" s="17">
+        <v>1120.788</v>
+      </c>
+      <c r="H320" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="J320" t="s">
+        <v>902</v>
+      </c>
+      <c r="K320" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L320">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="321" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B321" s="16">
+        <v>44230</v>
+      </c>
+      <c r="C321" s="16">
+        <v>44760</v>
+      </c>
+      <c r="D321" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H321" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="J321" t="s">
+        <v>903</v>
+      </c>
+      <c r="K321" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L321">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="322" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B322" s="16">
+        <v>44550</v>
+      </c>
+      <c r="C322" s="16">
+        <v>44774</v>
+      </c>
+      <c r="D322" s="17">
+        <v>327.32299999999998</v>
+      </c>
+      <c r="H322" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="J322" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="323" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B323" s="16">
+        <v>43594</v>
+      </c>
+      <c r="C323" s="16">
+        <v>44837</v>
+      </c>
+      <c r="D323" s="17">
+        <v>494.238</v>
+      </c>
+      <c r="H323" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="J323" t="s">
+        <v>905</v>
+      </c>
+      <c r="K323" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L323">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="324" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B324" s="16">
+        <v>44822</v>
+      </c>
+      <c r="C324" s="16">
+        <v>44837</v>
+      </c>
+      <c r="D324" s="17">
+        <v>227.619</v>
+      </c>
+      <c r="H324" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="J324" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="325" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B325" s="16">
+        <v>44550</v>
+      </c>
+      <c r="C325" s="16">
+        <v>44840</v>
+      </c>
+      <c r="D325" s="17">
+        <v>32.581000000000003</v>
+      </c>
+      <c r="H325" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="J325" t="s">
+        <v>907</v>
+      </c>
+      <c r="K325" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B326" s="16">
+        <v>44420</v>
+      </c>
+      <c r="C326" s="16">
+        <v>44841</v>
+      </c>
+      <c r="D326" s="17">
+        <v>40.276000000000003</v>
+      </c>
+      <c r="H326" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="J326" t="s">
+        <v>908</v>
+      </c>
+      <c r="K326" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B327" s="16">
+        <v>44628</v>
+      </c>
+      <c r="C327" s="16">
+        <v>44866</v>
+      </c>
+      <c r="D327" s="17">
+        <v>2194.0659999999998</v>
+      </c>
+      <c r="H327" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="J327" t="s">
+        <v>880</v>
+      </c>
+      <c r="K327" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L327">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="328" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B328" s="16">
+        <v>44636</v>
+      </c>
+      <c r="C328" s="16">
+        <v>44896</v>
+      </c>
+      <c r="D328" s="17">
+        <v>363.79599999999999</v>
+      </c>
+      <c r="H328" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="J328" t="s">
+        <v>909</v>
+      </c>
+      <c r="K328" t="s">
+        <v>706</v>
+      </c>
+      <c r="L328">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="329" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B329" s="16">
+        <v>44679</v>
+      </c>
+      <c r="C329" s="16">
+        <v>44909</v>
+      </c>
+      <c r="D329" s="17">
+        <v>1018.182</v>
+      </c>
+      <c r="H329" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="J329" t="s">
+        <v>910</v>
+      </c>
+      <c r="K329" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L329">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B330" s="16">
+        <v>44509</v>
+      </c>
+      <c r="C330" s="16">
+        <v>44929</v>
+      </c>
+      <c r="D330" s="17">
+        <v>22031.831999999999</v>
+      </c>
+      <c r="H330" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="J330" t="s">
+        <v>911</v>
+      </c>
+      <c r="K330" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B331" s="16">
+        <v>44761</v>
+      </c>
+      <c r="C331" s="16">
+        <v>44943</v>
+      </c>
+      <c r="D331" s="17">
+        <v>421.24099999999999</v>
+      </c>
+      <c r="H331" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="J331" t="s">
+        <v>912</v>
+      </c>
+      <c r="K331" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L331">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="332" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B332" s="16">
+        <v>44784</v>
+      </c>
+      <c r="C332" s="16">
+        <v>45016</v>
+      </c>
+      <c r="D332" s="17">
+        <v>262.43299999999999</v>
+      </c>
+      <c r="H332" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="J332" t="s">
+        <v>913</v>
+      </c>
+      <c r="K332" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B333" s="16">
+        <v>44650</v>
+      </c>
+      <c r="C333" s="16">
+        <v>45019</v>
+      </c>
+      <c r="D333" s="17">
+        <v>4206.38</v>
+      </c>
+      <c r="H333" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="J333" t="s">
+        <v>914</v>
+      </c>
+      <c r="K333" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L333">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="334" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B334" s="16">
+        <v>44860</v>
+      </c>
+      <c r="C334" s="16">
+        <v>45036</v>
+      </c>
+      <c r="D334" s="17">
+        <v>1126.616</v>
+      </c>
+      <c r="H334" s="18" t="s">
+        <v>915</v>
+      </c>
+      <c r="J334" t="s">
+        <v>915</v>
+      </c>
+      <c r="K334" t="s">
+        <v>988</v>
+      </c>
+      <c r="L334">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="335" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B335" s="16">
+        <v>45040</v>
+      </c>
+      <c r="C335" s="16">
+        <v>45040</v>
+      </c>
+      <c r="D335" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H335" s="18" t="s">
+        <v>916</v>
+      </c>
+      <c r="J335" t="s">
+        <v>916</v>
+      </c>
+      <c r="K335" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L335">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="336" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B336" s="16">
+        <v>45056</v>
+      </c>
+      <c r="C336" s="16">
+        <v>45056</v>
+      </c>
+      <c r="D336" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H336" s="18" t="s">
+        <v>917</v>
+      </c>
+      <c r="J336" t="s">
+        <v>917</v>
+      </c>
+      <c r="K336" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L336">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B337" s="16">
+        <v>45062</v>
+      </c>
+      <c r="C337" s="16">
+        <v>45062</v>
+      </c>
+      <c r="D337" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H337" s="18" t="s">
+        <v>918</v>
+      </c>
+      <c r="J337" t="s">
+        <v>918</v>
+      </c>
+      <c r="K337" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L337">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="338" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B338" s="16">
+        <v>44970</v>
+      </c>
+      <c r="C338" s="16">
+        <v>45068</v>
+      </c>
+      <c r="D338" s="17">
+        <v>20.734000000000002</v>
+      </c>
+      <c r="H338" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="J338" t="s">
+        <v>919</v>
+      </c>
+      <c r="K338" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B339" s="16">
+        <v>44748</v>
+      </c>
+      <c r="C339" s="16">
+        <v>45072</v>
+      </c>
+      <c r="D339" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H339" s="18" t="s">
+        <v>920</v>
+      </c>
+      <c r="J339" t="s">
+        <v>920</v>
+      </c>
+      <c r="K339" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L339">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="340" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B340" s="16">
+        <v>44777</v>
+      </c>
+      <c r="C340" s="16">
+        <v>45078</v>
+      </c>
+      <c r="D340" s="17">
+        <v>1865.837</v>
+      </c>
+      <c r="H340" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="J340" t="s">
+        <v>921</v>
+      </c>
+      <c r="K340" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B341" s="16">
+        <v>44770</v>
+      </c>
+      <c r="C341" s="16">
+        <v>45110</v>
+      </c>
+      <c r="D341" s="17">
+        <v>4784.0240000000003</v>
+      </c>
+      <c r="H341" s="18" t="s">
+        <v>922</v>
+      </c>
+      <c r="J341" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="342" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B342" s="16">
+        <v>44901</v>
+      </c>
+      <c r="C342" s="16">
+        <v>45110</v>
+      </c>
+      <c r="D342" s="17">
+        <v>1412.835</v>
+      </c>
+      <c r="H342" s="18" t="s">
+        <v>923</v>
+      </c>
+      <c r="J342" t="s">
+        <v>923</v>
+      </c>
+      <c r="K342" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L342">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="343" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B343" s="16">
+        <v>44980</v>
+      </c>
+      <c r="C343" s="16">
+        <v>45138</v>
+      </c>
+      <c r="D343" s="17">
+        <v>6023.018</v>
+      </c>
+      <c r="H343" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="J343" t="s">
+        <v>924</v>
+      </c>
+      <c r="K343" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B344" s="16">
+        <v>45181</v>
+      </c>
+      <c r="C344" s="16">
+        <v>45181</v>
+      </c>
+      <c r="D344" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H344" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="J344" t="s">
+        <v>925</v>
+      </c>
+      <c r="K344" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B345" s="16">
+        <v>44918</v>
+      </c>
+      <c r="C345" s="16">
+        <v>45197</v>
+      </c>
+      <c r="D345" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H345" s="18" t="s">
+        <v>926</v>
+      </c>
+      <c r="J345" t="s">
+        <v>926</v>
+      </c>
+      <c r="K345" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B346" s="16">
+        <v>44818</v>
+      </c>
+      <c r="C346" s="16">
+        <v>45199</v>
+      </c>
+      <c r="D346" s="17">
+        <v>23274.776000000002</v>
+      </c>
+      <c r="H346" s="18" t="s">
+        <v>927</v>
+      </c>
+      <c r="J346" t="s">
+        <v>927</v>
+      </c>
+      <c r="K346" t="s">
+        <v>695</v>
+      </c>
+      <c r="L346">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="347" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B347" s="16">
+        <v>44733</v>
+      </c>
+      <c r="C347" s="16">
+        <v>45201</v>
+      </c>
+      <c r="D347" s="17">
+        <v>1542.6949999999999</v>
+      </c>
+      <c r="H347" s="18" t="s">
+        <v>928</v>
+      </c>
+      <c r="J347" t="s">
+        <v>928</v>
+      </c>
+      <c r="K347" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L347">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="348" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B348" s="16">
+        <v>44691</v>
+      </c>
+      <c r="C348" s="16">
+        <v>45201</v>
+      </c>
+      <c r="D348" s="17">
+        <v>3685.81</v>
+      </c>
+      <c r="H348" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="J348" t="s">
+        <v>929</v>
+      </c>
+      <c r="K348" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L348">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="349" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B349" s="16">
+        <v>45203</v>
+      </c>
+      <c r="C349" s="16">
+        <v>45203</v>
+      </c>
+      <c r="D349" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H349" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="J349" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="350" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B350" s="16">
+        <v>44819</v>
+      </c>
+      <c r="C350" s="16">
+        <v>45215</v>
+      </c>
+      <c r="D350" s="17">
+        <v>3555.9119999999998</v>
+      </c>
+      <c r="H350" s="18" t="s">
+        <v>931</v>
+      </c>
+      <c r="J350" t="s">
+        <v>931</v>
+      </c>
+      <c r="K350" t="s">
+        <v>626</v>
+      </c>
+      <c r="L350">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="351" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B351" s="16">
+        <v>45189</v>
+      </c>
+      <c r="C351" s="16">
+        <v>45231</v>
+      </c>
+      <c r="D351" s="17">
+        <v>527.66899999999998</v>
+      </c>
+      <c r="H351" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="J351" t="s">
+        <v>932</v>
+      </c>
+      <c r="K351" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B352" s="16">
+        <v>44867</v>
+      </c>
+      <c r="C352" s="16">
+        <v>45245</v>
+      </c>
+      <c r="D352" s="17">
+        <v>63.414999999999999</v>
+      </c>
+      <c r="H352" s="18" t="s">
+        <v>933</v>
+      </c>
+      <c r="J352" t="s">
+        <v>933</v>
+      </c>
+      <c r="K352" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L352">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="353" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B353" s="16">
+        <v>45251</v>
+      </c>
+      <c r="C353" s="16">
+        <v>45251</v>
+      </c>
+      <c r="D353" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H353" s="18" t="s">
+        <v>934</v>
+      </c>
+      <c r="J353" t="s">
+        <v>934</v>
+      </c>
+      <c r="K353" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B354" s="16">
+        <v>44833</v>
+      </c>
+      <c r="C354" s="16">
+        <v>45261</v>
+      </c>
+      <c r="D354" s="17">
+        <v>16099.232</v>
+      </c>
+      <c r="H354" s="18" t="s">
+        <v>935</v>
+      </c>
+      <c r="J354" t="s">
+        <v>935</v>
+      </c>
+      <c r="K354" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L354">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="355" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B355" s="16">
+        <v>44958</v>
+      </c>
+      <c r="C355" s="16">
+        <v>45293</v>
+      </c>
+      <c r="D355" s="17">
+        <v>3529.5949999999998</v>
+      </c>
+      <c r="H355" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="J355" t="s">
+        <v>936</v>
+      </c>
+      <c r="K355" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B356" s="16">
+        <v>45351</v>
+      </c>
+      <c r="C356" s="16">
+        <v>45351</v>
+      </c>
+      <c r="D356" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H356" s="18" t="s">
+        <v>937</v>
+      </c>
+      <c r="J356" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="357" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B357" s="16">
+        <v>44768</v>
+      </c>
+      <c r="C357" s="16">
+        <v>45383</v>
+      </c>
+      <c r="D357" s="17">
+        <v>11067.204</v>
+      </c>
+      <c r="H357" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="J357" t="s">
+        <v>938</v>
+      </c>
+      <c r="K357" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L357">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="358" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B358" s="16">
+        <v>44509</v>
+      </c>
+      <c r="C358" s="16">
+        <v>45384</v>
+      </c>
+      <c r="D358" s="17">
+        <v>37046.701000000001</v>
+      </c>
+      <c r="H358" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="J358" t="s">
+        <v>911</v>
+      </c>
+      <c r="K358" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B359" s="16">
+        <v>45314</v>
+      </c>
+      <c r="C359" s="16">
+        <v>45442</v>
+      </c>
+      <c r="D359" s="17">
+        <v>253.38399999999999</v>
+      </c>
+      <c r="H359" s="18" t="s">
+        <v>939</v>
+      </c>
+      <c r="J359" t="s">
+        <v>939</v>
+      </c>
+      <c r="K359" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B360" s="16">
+        <v>45446</v>
+      </c>
+      <c r="C360" s="16">
+        <v>45467</v>
+      </c>
+      <c r="D360" s="17">
+        <v>484.38</v>
+      </c>
+      <c r="H360" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="J360" t="s">
+        <v>940</v>
+      </c>
+      <c r="K360" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L360">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="361" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B361" s="16">
+        <v>45344</v>
+      </c>
+      <c r="C361" s="16">
+        <v>45482</v>
+      </c>
+      <c r="D361" s="17">
+        <v>75.778999999999996</v>
+      </c>
+      <c r="H361" s="18" t="s">
+        <v>941</v>
+      </c>
+      <c r="J361" t="s">
+        <v>941</v>
+      </c>
+      <c r="K361" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L361">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K141" r:id="rId1" xr:uid="{F60B25FB-1D36-4C94-9F57-CD88C366242C}"/>
+    <hyperlink ref="K220" r:id="rId2" xr:uid="{BB76109D-36BC-415A-832C-046C87C1C918}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Results/GlassDoorVerifiedList.xlsx
+++ b/Results/GlassDoorVerifiedList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo_q\Desktop\Working on\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lqian\Desktop\GlassDoorProject\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E386FEE-1F66-4616-8BEF-E46D0CF7D738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69A8D20-DB65-45EA-8EE3-AB43AE157F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="copy" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1076">
   <si>
     <t>D_num</t>
   </si>
@@ -2894,9 +2894,6 @@
     <t>https://www.glassdoor.com/Reviews/Spirit-Realty-Capital-Reviews-E1844789.htm</t>
   </si>
   <si>
-    <t>https://www.glassdoor.com/Reviews/State-Farm-Reviews-E2990.htm</t>
-  </si>
-  <si>
     <t>https://www.glassdoor.com/Reviews/DDR-Corp-Reviews-E2277.htm</t>
   </si>
   <si>
@@ -2948,9 +2945,6 @@
     <t>https://www.glassdoor.com/Reviews/Ironwood-Pharmaceuticals-Reviews-E262397.htm</t>
   </si>
   <si>
-    <t>https://www.glassdoor.com/Reviews/DowDupont-Reviews-E2123565.htm</t>
-  </si>
-  <si>
     <t>https://www.glassdoor.com/Reviews/Onex-Reviews-E6492.htm</t>
   </si>
   <si>
@@ -2963,15 +2957,9 @@
     <t>https://www.glassdoor.com/Reviews/Thompson-Street-Capital-Partners-Reviews-E134472.htm</t>
   </si>
   <si>
-    <t>https://www.glassdoor.com/Reviews/Ekata-Reviews-E2867079.htm</t>
-  </si>
-  <si>
     <t>https://www.glassdoor.com/Reviews/OPENLANE-Reviews-E43271.htm</t>
   </si>
   <si>
-    <t>https://www.glassdoor.com/Reviews/Telemynd-Reviews-E4211224.htm</t>
-  </si>
-  <si>
     <t>https://www.glassdoor.com/Reviews/Leader-Bank-Reviews-E348885.htm</t>
   </si>
   <si>
@@ -2990,9 +2978,6 @@
     <t>https://www.glassdoor.com/Reviews/Taronis-Fuels-Reviews-E4517469.htm</t>
   </si>
   <si>
-    <t>https://www.glassdoor.com/Reviews/Avant-TN-Reviews-E1548106.htm</t>
-  </si>
-  <si>
     <t>https://www.glassdoor.com/Reviews/Chanticleer-Holdings-Reviews-E361270.htm</t>
   </si>
   <si>
@@ -3246,6 +3231,36 @@
   </si>
   <si>
     <t>https://www.glassdoor.com/Reviews/ServiceMaster-Brands-Reviews-E596.htm</t>
+  </si>
+  <si>
+    <t>purchased by Disney</t>
+  </si>
+  <si>
+    <t>Split to 3 companies</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Dow-Reviews-E207.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Corteva-Agriscience-Reviews-E2159858.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Altice-USA-Reviews-E3190196.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Whitepages-Reviews-E105846.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/First-Banker-s-Trust-Reviews-E565480.htm</t>
+  </si>
+  <si>
+    <t>acquired by Emmaus Life Sciences</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Emmaus-Life-Sciences-Reviews-E2246845.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Amount-Reviews-E3022487.htm</t>
   </si>
 </sst>
 </file>
@@ -3882,9 +3897,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3922,7 +3937,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4028,7 +4043,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4170,7 +4185,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4180,21 +4195,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F202" workbookViewId="0">
-      <selection activeCell="J233" sqref="J233:L233"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="K259" sqref="K259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.81640625" customWidth="1"/>
-    <col min="11" max="11" width="81.1796875" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="11" max="11" width="81.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4247,7 +4262,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>958653020</v>
       </c>
@@ -4285,7 +4300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1084001020</v>
       </c>
@@ -4323,7 +4338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1042093020</v>
       </c>
@@ -4361,7 +4376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>903763020</v>
       </c>
@@ -4399,7 +4414,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>892756020</v>
       </c>
@@ -4433,7 +4448,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>906356020</v>
       </c>
@@ -4471,7 +4486,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>997497020</v>
       </c>
@@ -4509,7 +4524,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1004652020</v>
       </c>
@@ -4547,7 +4562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1033777020</v>
       </c>
@@ -4585,7 +4600,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>904488020</v>
       </c>
@@ -4623,7 +4638,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1061243020</v>
       </c>
@@ -4657,7 +4672,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1027400020</v>
       </c>
@@ -4695,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1024939020</v>
       </c>
@@ -4733,7 +4748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>982714020</v>
       </c>
@@ -4777,7 +4792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>937277020</v>
       </c>
@@ -4815,7 +4830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>1002408020</v>
       </c>
@@ -4863,7 +4878,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1016041020</v>
       </c>
@@ -4901,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1081959020</v>
       </c>
@@ -4939,7 +4954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1068976020</v>
       </c>
@@ -4977,7 +4992,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1020416020</v>
       </c>
@@ -5015,7 +5030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1073206020</v>
       </c>
@@ -5053,7 +5068,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1224268020</v>
       </c>
@@ -5100,7 +5115,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1052511020</v>
       </c>
@@ -5138,7 +5153,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1052020020</v>
       </c>
@@ -5176,7 +5191,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1221948020</v>
       </c>
@@ -5214,7 +5229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1198395020</v>
       </c>
@@ -5250,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1073581020</v>
       </c>
@@ -5288,7 +5303,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1228949020</v>
       </c>
@@ -5329,7 +5344,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1192517020</v>
       </c>
@@ -5376,7 +5391,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1256755020</v>
       </c>
@@ -5414,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1273248020</v>
       </c>
@@ -5452,7 +5467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1219213020</v>
       </c>
@@ -5499,7 +5514,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1264376020</v>
       </c>
@@ -5537,7 +5552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1195012020</v>
       </c>
@@ -5578,7 +5593,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1273272020</v>
       </c>
@@ -5616,7 +5631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1273291020</v>
       </c>
@@ -5654,7 +5669,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1279953020</v>
       </c>
@@ -5692,7 +5707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1285502020</v>
       </c>
@@ -5730,7 +5745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>1337206020</v>
       </c>
@@ -5771,7 +5786,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1336812020</v>
       </c>
@@ -5809,7 +5824,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1379899020</v>
       </c>
@@ -5847,7 +5862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1389126020</v>
       </c>
@@ -5885,7 +5900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>1387525020</v>
       </c>
@@ -5923,7 +5938,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>1410848020</v>
       </c>
@@ -5961,7 +5976,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>1378176020</v>
       </c>
@@ -5997,7 +6012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1360301020</v>
       </c>
@@ -6035,7 +6050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>1361276020</v>
       </c>
@@ -6074,7 +6089,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>1370494020</v>
       </c>
@@ -6112,7 +6127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>1426370020</v>
       </c>
@@ -6150,7 +6165,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>1460786020</v>
       </c>
@@ -6191,7 +6206,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>1506840020</v>
       </c>
@@ -6241,7 +6256,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>1311101020</v>
       </c>
@@ -6279,7 +6294,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>1613492020</v>
       </c>
@@ -6317,7 +6332,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>1501311020</v>
       </c>
@@ -6355,7 +6370,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1527753020</v>
       </c>
@@ -6402,7 +6417,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>1634892020</v>
       </c>
@@ -6440,7 +6455,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>1651997020</v>
       </c>
@@ -6481,7 +6496,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>1637399020</v>
       </c>
@@ -6519,7 +6534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>1678350020</v>
       </c>
@@ -6560,7 +6575,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>1626566020</v>
       </c>
@@ -6598,7 +6613,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>1661511020</v>
       </c>
@@ -6636,7 +6651,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>1674219020</v>
       </c>
@@ -6677,7 +6692,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>1684048020</v>
       </c>
@@ -6715,7 +6730,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>1638823020</v>
       </c>
@@ -6753,7 +6768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>1730664020</v>
       </c>
@@ -6794,7 +6809,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>1769501020</v>
       </c>
@@ -6832,7 +6847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>1717019020</v>
       </c>
@@ -6870,7 +6885,7 @@
         <v>3467</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>1781948020</v>
       </c>
@@ -6908,7 +6923,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>1727788020</v>
       </c>
@@ -6946,7 +6961,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>1828427020</v>
       </c>
@@ -6984,7 +6999,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>1869388020</v>
       </c>
@@ -7022,7 +7037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>1890896020</v>
       </c>
@@ -7060,7 +7075,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>1899036020</v>
       </c>
@@ -7101,7 +7116,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>1843920020</v>
       </c>
@@ -7142,7 +7157,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>1916095020</v>
       </c>
@@ -7183,7 +7198,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>1911231020</v>
       </c>
@@ -7217,7 +7232,7 @@
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>1777138020</v>
       </c>
@@ -7255,7 +7270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>1915098020</v>
       </c>
@@ -7293,7 +7308,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>1919100020</v>
       </c>
@@ -7331,7 +7346,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1921829020</v>
       </c>
@@ -7369,7 +7384,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>1925083020</v>
       </c>
@@ -7401,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>1921929020</v>
       </c>
@@ -7442,7 +7457,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>1934978020</v>
       </c>
@@ -7480,7 +7495,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>1955865020</v>
       </c>
@@ -7518,7 +7533,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>1955205020</v>
       </c>
@@ -7556,7 +7571,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>1970203020</v>
       </c>
@@ -7594,7 +7609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>1974055020</v>
       </c>
@@ -7641,7 +7656,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>2081682020</v>
       </c>
@@ -7679,7 +7694,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>2037973020</v>
       </c>
@@ -7717,7 +7732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>2002678020</v>
       </c>
@@ -7755,7 +7770,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>2073486020</v>
       </c>
@@ -7793,7 +7808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>2069415020</v>
       </c>
@@ -7840,7 +7855,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>2122200020</v>
       </c>
@@ -7881,7 +7896,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>2122041020</v>
       </c>
@@ -7919,7 +7934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>2134950020</v>
       </c>
@@ -7957,7 +7972,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2215677020</v>
       </c>
@@ -7992,7 +8007,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>1963668020</v>
       </c>
@@ -8030,7 +8045,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>2284811020</v>
       </c>
@@ -8068,7 +8083,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>2270499020</v>
       </c>
@@ -8106,7 +8121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>2240450020</v>
       </c>
@@ -8144,7 +8159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>2340793020</v>
       </c>
@@ -8185,7 +8200,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>2247301020</v>
       </c>
@@ -8226,7 +8241,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>2269869020</v>
       </c>
@@ -8264,7 +8279,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>2280274020</v>
       </c>
@@ -8302,7 +8317,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>2298785020</v>
       </c>
@@ -8340,7 +8355,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>2322236020</v>
       </c>
@@ -8378,7 +8393,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>2329249020</v>
       </c>
@@ -8419,7 +8434,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
         <v>2348102020</v>
       </c>
@@ -8453,7 +8468,7 @@
       <c r="K109" s="13"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>2328994020</v>
       </c>
@@ -8491,7 +8506,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>2284965020</v>
       </c>
@@ -8529,7 +8544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="9">
         <v>2318902020</v>
       </c>
@@ -8570,7 +8585,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>2368043020</v>
       </c>
@@ -8608,7 +8623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>2428081020</v>
       </c>
@@ -8649,7 +8664,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>2429502020</v>
       </c>
@@ -8687,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
         <v>2345908020</v>
       </c>
@@ -8728,7 +8743,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>2334734020</v>
       </c>
@@ -8766,7 +8781,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="13">
         <v>2458646020</v>
       </c>
@@ -8805,7 +8820,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <v>2379016020</v>
       </c>
@@ -8846,7 +8861,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>2481811020</v>
       </c>
@@ -8884,7 +8899,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
         <v>2355953020</v>
       </c>
@@ -8925,7 +8940,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>2440857020</v>
       </c>
@@ -8963,7 +8978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>2487032020</v>
       </c>
@@ -9001,7 +9016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>2438406020</v>
       </c>
@@ -9039,7 +9054,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>2317826020</v>
       </c>
@@ -9086,7 +9101,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>2428061020</v>
       </c>
@@ -9124,7 +9139,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>2546815020</v>
       </c>
@@ -9165,7 +9180,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>2459735020</v>
       </c>
@@ -9203,7 +9218,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>2446365020</v>
       </c>
@@ -9241,7 +9256,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>2470936020</v>
       </c>
@@ -9279,7 +9294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>2468735020</v>
       </c>
@@ -9317,7 +9332,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>2507810020</v>
       </c>
@@ -9355,7 +9370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>9999999000</v>
       </c>
@@ -9393,7 +9408,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>2553535020</v>
       </c>
@@ -9431,7 +9446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>2465216020</v>
       </c>
@@ -9469,7 +9484,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="9">
         <v>2579746020</v>
       </c>
@@ -9510,7 +9525,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>2551064020</v>
       </c>
@@ -9548,7 +9563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>2569695020</v>
       </c>
@@ -9586,7 +9601,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>2582407020</v>
       </c>
@@ -9624,7 +9639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="13">
         <v>2643625020</v>
       </c>
@@ -9660,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>2502261020</v>
       </c>
@@ -9701,7 +9716,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>2604709020</v>
       </c>
@@ -9739,7 +9754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>2563900020</v>
       </c>
@@ -9777,7 +9792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <v>2612302020</v>
       </c>
@@ -9818,7 +9833,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>2497761020</v>
       </c>
@@ -9859,7 +9874,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>2569669020</v>
       </c>
@@ -9897,7 +9912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="13">
         <v>2634481020</v>
       </c>
@@ -9936,7 +9951,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>2592526020</v>
       </c>
@@ -9974,7 +9989,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>2627743020</v>
       </c>
@@ -10015,7 +10030,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>2568108020</v>
       </c>
@@ -10053,7 +10068,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="9">
         <v>2584546020</v>
       </c>
@@ -10090,7 +10105,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>2603563020</v>
       </c>
@@ -10128,7 +10143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
         <v>2635780020</v>
       </c>
@@ -10169,7 +10184,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>2627635020</v>
       </c>
@@ -10216,7 +10231,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>2609908020</v>
       </c>
@@ -10254,7 +10269,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>2644735020</v>
       </c>
@@ -10292,7 +10307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>2714449020</v>
       </c>
@@ -10333,7 +10348,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="13">
         <v>2635681020</v>
       </c>
@@ -10372,7 +10387,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>2659304020</v>
       </c>
@@ -10410,7 +10425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>2661527020</v>
       </c>
@@ -10448,7 +10463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>2549249020</v>
       </c>
@@ -10486,7 +10501,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>2622309020</v>
       </c>
@@ -10524,7 +10539,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>2632951020</v>
       </c>
@@ -10562,7 +10577,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>2680811020</v>
       </c>
@@ -10600,7 +10615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>2696199020</v>
       </c>
@@ -10638,7 +10653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>2706323020</v>
       </c>
@@ -10676,7 +10691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>2691750020</v>
       </c>
@@ -10714,7 +10729,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>2603921020</v>
       </c>
@@ -10752,7 +10767,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="9">
         <v>2728015020</v>
       </c>
@@ -10793,7 +10808,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>2673601020</v>
       </c>
@@ -10831,7 +10846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>2690217020</v>
       </c>
@@ -10869,7 +10884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>2689710020</v>
       </c>
@@ -10907,7 +10922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>2682929020</v>
       </c>
@@ -10945,7 +10960,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>2696761020</v>
       </c>
@@ -10983,7 +10998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>2767110020</v>
       </c>
@@ -11021,7 +11036,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>2723108020</v>
       </c>
@@ -11059,7 +11074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>2719793020</v>
       </c>
@@ -11097,7 +11112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>2748351020</v>
       </c>
@@ -11135,7 +11150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>2726717020</v>
       </c>
@@ -11173,7 +11188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>2787910020</v>
       </c>
@@ -11211,7 +11226,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>2713458020</v>
       </c>
@@ -11249,7 +11264,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="9">
         <v>2940516020</v>
       </c>
@@ -11290,7 +11305,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>2598500020</v>
       </c>
@@ -11328,7 +11343,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>2752282020</v>
       </c>
@@ -11366,7 +11381,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>2954488020</v>
       </c>
@@ -11404,7 +11419,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>2798647020</v>
       </c>
@@ -11442,7 +11457,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>2801932020</v>
       </c>
@@ -11480,7 +11495,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>2957646020</v>
       </c>
@@ -11518,7 +11533,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>2805584020</v>
       </c>
@@ -11556,7 +11571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>9999999005</v>
       </c>
@@ -11594,7 +11609,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>2822207020</v>
       </c>
@@ -11632,7 +11647,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>3032736020</v>
       </c>
@@ -11670,7 +11685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>3021104020</v>
       </c>
@@ -11708,7 +11723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>2915194020</v>
       </c>
@@ -11746,7 +11761,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>2855241020</v>
       </c>
@@ -11784,7 +11799,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>2962520020</v>
       </c>
@@ -11822,7 +11837,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>2953980020</v>
       </c>
@@ -11860,7 +11875,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="9">
         <v>3005901020</v>
       </c>
@@ -11901,7 +11916,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="9">
         <v>3063341020</v>
       </c>
@@ -11942,7 +11957,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>3113110020</v>
       </c>
@@ -11980,7 +11995,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="9">
         <v>3157900020</v>
       </c>
@@ -12021,7 +12036,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>3126486020</v>
       </c>
@@ -12059,7 +12074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B203" s="16">
         <v>42937</v>
       </c>
@@ -12082,7 +12097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B204" s="16">
         <v>43096</v>
       </c>
@@ -12105,7 +12120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B205" s="16">
         <v>42926</v>
       </c>
@@ -12128,7 +12143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B206" s="16">
         <v>43154</v>
       </c>
@@ -12151,10 +12166,10 @@
         <v>73</v>
       </c>
       <c r="M206" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B207" s="16">
         <v>42817</v>
       </c>
@@ -12177,7 +12192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B208" s="16">
         <v>42985</v>
       </c>
@@ -12200,7 +12215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B209" s="16">
         <v>43186</v>
       </c>
@@ -12223,7 +12238,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="210" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B210" s="16">
         <v>43193</v>
       </c>
@@ -12246,7 +12261,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="211" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B211" s="16">
         <v>42864</v>
       </c>
@@ -12269,7 +12284,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="212" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B212" s="16">
         <v>43076</v>
       </c>
@@ -12292,7 +12307,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="213" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B213" s="16">
         <v>43231</v>
       </c>
@@ -12315,7 +12330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B214" s="16">
         <v>42753</v>
       </c>
@@ -12338,7 +12353,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="215" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B215" s="16">
         <v>42968</v>
       </c>
@@ -12352,19 +12367,19 @@
         <v>803</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="K215" s="2" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="L215" s="2">
         <v>260</v>
       </c>
       <c r="M215" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="216" spans="2:13" x14ac:dyDescent="0.35">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="216" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B216" s="16">
         <v>42949</v>
       </c>
@@ -12381,16 +12396,16 @@
         <v>803</v>
       </c>
       <c r="K216" s="2" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="L216" s="2">
         <v>76</v>
       </c>
       <c r="M216" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="217" spans="2:13" x14ac:dyDescent="0.35">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="217" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B217" s="16">
         <v>42950</v>
       </c>
@@ -12413,7 +12428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B218" s="16">
         <v>43108</v>
       </c>
@@ -12426,17 +12441,20 @@
       <c r="H218" s="18" t="s">
         <v>805</v>
       </c>
-      <c r="J218" s="13" t="s">
+      <c r="J218" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="K218" s="13" t="s">
-        <v>953</v>
-      </c>
-      <c r="L218" s="13">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="219" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="K218" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L218" s="2">
+        <v>84</v>
+      </c>
+      <c r="M218" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="219" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B219" s="16">
         <v>43083</v>
       </c>
@@ -12453,13 +12471,13 @@
         <v>806</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="L219" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B220" s="16">
         <v>43208</v>
       </c>
@@ -12476,13 +12494,13 @@
         <v>807</v>
       </c>
       <c r="K220" s="20" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L220" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B221" s="16">
         <v>43089</v>
       </c>
@@ -12499,13 +12517,13 @@
         <v>808</v>
       </c>
       <c r="K221" s="13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L221" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B222" s="16">
         <v>43332</v>
       </c>
@@ -12522,13 +12540,13 @@
         <v>809</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="L222" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="223" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B223" s="16">
         <v>43207</v>
       </c>
@@ -12545,13 +12563,13 @@
         <v>810</v>
       </c>
       <c r="K223" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="L223" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B224" s="16">
         <v>43221</v>
       </c>
@@ -12568,13 +12586,13 @@
         <v>811</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="L224" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B225" s="16">
         <v>43360</v>
       </c>
@@ -12591,13 +12609,13 @@
         <v>812</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L225" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B226" s="16">
         <v>42942</v>
       </c>
@@ -12614,13 +12632,13 @@
         <v>813</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="L226" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="227" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B227" s="16">
         <v>43018</v>
       </c>
@@ -12643,7 +12661,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="228" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B228" s="16">
         <v>43053</v>
       </c>
@@ -12660,13 +12678,13 @@
         <v>815</v>
       </c>
       <c r="K228" s="13" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="L228" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B229" s="16">
         <v>43018</v>
       </c>
@@ -12689,7 +12707,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="230" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B230" s="16">
         <v>43081</v>
       </c>
@@ -12706,13 +12724,13 @@
         <v>816</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L230" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="231" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B231" s="16">
         <v>43152</v>
       </c>
@@ -12729,13 +12747,13 @@
         <v>817</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L231" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B232" s="16">
         <v>43140</v>
       </c>
@@ -12752,13 +12770,13 @@
         <v>818</v>
       </c>
       <c r="K232" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L232" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="233" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B233" s="16">
         <v>43433</v>
       </c>
@@ -12775,13 +12793,13 @@
         <v>819</v>
       </c>
       <c r="K233" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L233" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B234" s="16">
         <v>43493</v>
       </c>
@@ -12794,17 +12812,17 @@
       <c r="H234" s="18" t="s">
         <v>820</v>
       </c>
-      <c r="J234" t="s">
+      <c r="J234" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="K234" t="s">
-        <v>966</v>
-      </c>
-      <c r="L234">
+      <c r="K234" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="L234" s="2">
         <v>1078</v>
       </c>
     </row>
-    <row r="235" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B235" s="16">
         <v>43507</v>
       </c>
@@ -12817,17 +12835,17 @@
       <c r="H235" s="18" t="s">
         <v>821</v>
       </c>
-      <c r="J235" t="s">
+      <c r="J235" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="K235" t="s">
-        <v>967</v>
-      </c>
-      <c r="L235">
+      <c r="K235" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="L235" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="236" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B236" s="16">
         <v>43536</v>
       </c>
@@ -12840,17 +12858,17 @@
       <c r="H236" s="18" t="s">
         <v>822</v>
       </c>
-      <c r="J236" t="s">
+      <c r="J236" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="K236" t="s">
-        <v>968</v>
-      </c>
-      <c r="L236">
+      <c r="K236" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="L236" s="2">
         <v>613</v>
       </c>
     </row>
-    <row r="237" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B237" s="16">
         <v>43083</v>
       </c>
@@ -12863,17 +12881,20 @@
       <c r="H237" s="18" t="s">
         <v>823</v>
       </c>
-      <c r="J237" t="s">
+      <c r="J237" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="K237" t="s">
-        <v>969</v>
-      </c>
-      <c r="L237">
+      <c r="K237" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="L237" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="238" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M237" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="238" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B238" s="16">
         <v>43221</v>
       </c>
@@ -12886,17 +12907,23 @@
       <c r="H238" s="18" t="s">
         <v>824</v>
       </c>
-      <c r="J238" t="s">
+      <c r="J238" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="K238" t="s">
-        <v>970</v>
-      </c>
-      <c r="L238">
+      <c r="K238" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="L238" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="239" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="O238" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="P238" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="239" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B239" s="16">
         <v>43349</v>
       </c>
@@ -12909,17 +12936,20 @@
       <c r="H239" s="18" t="s">
         <v>825</v>
       </c>
-      <c r="J239" t="s">
+      <c r="J239" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="K239" t="s">
-        <v>971</v>
-      </c>
-      <c r="L239">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K239" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L239" s="2">
+        <v>334</v>
+      </c>
+      <c r="M239" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="240" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B240" s="16">
         <v>43556</v>
       </c>
@@ -12932,17 +12962,17 @@
       <c r="H240" s="18" t="s">
         <v>826</v>
       </c>
-      <c r="J240" t="s">
+      <c r="J240" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="K240" t="s">
-        <v>972</v>
-      </c>
-      <c r="L240">
+      <c r="K240" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="L240" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B241" s="16">
         <v>43493</v>
       </c>
@@ -12955,17 +12985,17 @@
       <c r="H241" s="18" t="s">
         <v>827</v>
       </c>
-      <c r="J241" t="s">
+      <c r="J241" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="K241" t="s">
-        <v>973</v>
-      </c>
-      <c r="L241">
+      <c r="K241" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="L241" s="13">
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B242" s="16">
         <v>43325</v>
       </c>
@@ -12978,17 +13008,17 @@
       <c r="H242" s="18" t="s">
         <v>828</v>
       </c>
-      <c r="J242" t="s">
+      <c r="J242" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="K242" t="s">
-        <v>974</v>
-      </c>
-      <c r="L242">
+      <c r="K242" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="L242" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="243" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B243" s="16">
         <v>43349</v>
       </c>
@@ -13001,17 +13031,17 @@
       <c r="H243" s="18" t="s">
         <v>825</v>
       </c>
-      <c r="J243" t="s">
+      <c r="J243" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="K243" t="s">
-        <v>971</v>
-      </c>
-      <c r="L243">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K243" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L243" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="244" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B244" s="16">
         <v>43622</v>
       </c>
@@ -13024,17 +13054,17 @@
       <c r="H244" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="J244" t="s">
+      <c r="J244" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="K244" t="s">
-        <v>975</v>
-      </c>
-      <c r="L244">
+      <c r="K244" s="13" t="s">
+        <v>973</v>
+      </c>
+      <c r="L244" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B245" s="16">
         <v>43628</v>
       </c>
@@ -13047,17 +13077,17 @@
       <c r="H245" s="18" t="s">
         <v>830</v>
       </c>
-      <c r="J245" t="s">
+      <c r="J245" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="K245" t="s">
-        <v>976</v>
-      </c>
-      <c r="L245">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="246" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K245" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L245" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B246" s="16">
         <v>43158</v>
       </c>
@@ -13070,17 +13100,17 @@
       <c r="H246" s="18" t="s">
         <v>831</v>
       </c>
-      <c r="J246" t="s">
+      <c r="J246" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="K246" t="s">
-        <v>977</v>
-      </c>
-      <c r="L246">
+      <c r="K246" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="L246" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B247" s="16">
         <v>43621</v>
       </c>
@@ -13093,13 +13123,17 @@
       <c r="H247" s="18" t="s">
         <v>832</v>
       </c>
-      <c r="J247" s="13" t="s">
+      <c r="J247" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="K247" s="13"/>
-      <c r="L247" s="13"/>
-    </row>
-    <row r="248" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K247" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L247" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B248" s="16">
         <v>43472</v>
       </c>
@@ -13112,17 +13146,20 @@
       <c r="H248" s="18" t="s">
         <v>833</v>
       </c>
-      <c r="J248" t="s">
+      <c r="J248" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="K248" t="s">
-        <v>978</v>
-      </c>
-      <c r="L248">
+      <c r="K248" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="L248" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="249" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M248" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="249" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B249" s="16">
         <v>43692</v>
       </c>
@@ -13135,17 +13172,17 @@
       <c r="H249" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="J249" t="s">
+      <c r="J249" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="K249" t="s">
-        <v>979</v>
-      </c>
-      <c r="L249">
+      <c r="K249" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="L249" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B250" s="16">
         <v>43714</v>
       </c>
@@ -13158,17 +13195,17 @@
       <c r="H250" s="18" t="s">
         <v>835</v>
       </c>
-      <c r="J250" t="s">
+      <c r="J250" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="K250" t="s">
-        <v>980</v>
-      </c>
-      <c r="L250">
+      <c r="K250" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="L250" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B251" s="16">
         <v>43591</v>
       </c>
@@ -13181,17 +13218,17 @@
       <c r="H251" s="18" t="s">
         <v>836</v>
       </c>
-      <c r="J251" t="s">
+      <c r="J251" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="K251" t="s">
+      <c r="K251" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="L251">
+      <c r="L251" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B252" s="16">
         <v>43423</v>
       </c>
@@ -13204,17 +13241,17 @@
       <c r="H252" s="18" t="s">
         <v>837</v>
       </c>
-      <c r="J252" t="s">
+      <c r="J252" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="K252" t="s">
-        <v>981</v>
-      </c>
-      <c r="L252">
+      <c r="K252" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="L252" s="2">
         <v>321</v>
       </c>
     </row>
-    <row r="253" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B253" s="16">
         <v>43756</v>
       </c>
@@ -13227,17 +13264,17 @@
       <c r="H253" s="18" t="s">
         <v>838</v>
       </c>
-      <c r="J253" t="s">
+      <c r="J253" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="K253" t="s">
-        <v>982</v>
-      </c>
-      <c r="L253">
+      <c r="K253" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="L253" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B254" s="16">
         <v>43760</v>
       </c>
@@ -13250,17 +13287,17 @@
       <c r="H254" s="18" t="s">
         <v>839</v>
       </c>
-      <c r="J254" t="s">
+      <c r="J254" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="K254" t="s">
-        <v>983</v>
-      </c>
-      <c r="L254">
+      <c r="K254" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="L254" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B255" s="16">
         <v>43661</v>
       </c>
@@ -13273,17 +13310,17 @@
       <c r="H255" s="18" t="s">
         <v>840</v>
       </c>
-      <c r="J255" t="s">
+      <c r="J255" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="K255" t="s">
-        <v>984</v>
-      </c>
-      <c r="L255">
+      <c r="K255" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="L255" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B256" s="16">
         <v>43866</v>
       </c>
@@ -13296,17 +13333,20 @@
       <c r="H256" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="J256" t="s">
+      <c r="J256" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="K256" t="s">
-        <v>985</v>
-      </c>
-      <c r="L256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K256" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L256" s="2">
+        <v>16</v>
+      </c>
+      <c r="M256" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="257" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B257" s="16">
         <v>43377</v>
       </c>
@@ -13319,11 +13359,13 @@
       <c r="H257" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="J257" t="s">
+      <c r="J257" s="13" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="258" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K257" s="13"/>
+      <c r="L257" s="13"/>
+    </row>
+    <row r="258" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B258" s="16">
         <v>43733</v>
       </c>
@@ -13340,7 +13382,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="259" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B259" s="16">
         <v>43748</v>
       </c>
@@ -13357,13 +13399,13 @@
         <v>844</v>
       </c>
       <c r="K259" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="L259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B260" s="16">
         <v>43502</v>
       </c>
@@ -13386,7 +13428,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="261" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B261" s="16">
         <v>43430</v>
       </c>
@@ -13403,13 +13445,13 @@
         <v>846</v>
       </c>
       <c r="K261" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="L261">
         <v>74</v>
       </c>
     </row>
-    <row r="262" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B262" s="16">
         <v>43430</v>
       </c>
@@ -13426,13 +13468,13 @@
         <v>846</v>
       </c>
       <c r="K262" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="L262">
         <v>74</v>
       </c>
     </row>
-    <row r="263" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B263" s="16">
         <v>43278</v>
       </c>
@@ -13449,13 +13491,13 @@
         <v>847</v>
       </c>
       <c r="K263" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="L263">
         <v>83</v>
       </c>
     </row>
-    <row r="264" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B264" s="16">
         <v>43971</v>
       </c>
@@ -13472,13 +13514,13 @@
         <v>848</v>
       </c>
       <c r="K264" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="L264">
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B265" s="16">
         <v>43984</v>
       </c>
@@ -13495,13 +13537,13 @@
         <v>849</v>
       </c>
       <c r="K265" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="L265">
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B266" s="16">
         <v>43998</v>
       </c>
@@ -13518,13 +13560,13 @@
         <v>850</v>
       </c>
       <c r="K266" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="L266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B267" s="16">
         <v>44007</v>
       </c>
@@ -13541,13 +13583,13 @@
         <v>851</v>
       </c>
       <c r="K267" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="L267">
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B268" s="16">
         <v>43684</v>
       </c>
@@ -13560,17 +13602,17 @@
       <c r="H268" s="18" t="s">
         <v>852</v>
       </c>
-      <c r="J268" t="s">
+      <c r="J268" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="K268" t="s">
+      <c r="K268" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="L268">
+      <c r="L268" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B269" s="16">
         <v>43780</v>
       </c>
@@ -13587,13 +13629,13 @@
         <v>853</v>
       </c>
       <c r="K269" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="L269">
         <v>44</v>
       </c>
     </row>
-    <row r="270" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B270" s="16">
         <v>43906</v>
       </c>
@@ -13610,13 +13652,13 @@
         <v>854</v>
       </c>
       <c r="K270" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="L270">
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B271" s="16">
         <v>44039</v>
       </c>
@@ -13633,13 +13675,13 @@
         <v>855</v>
       </c>
       <c r="K271" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="L271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B272" s="16">
         <v>43782</v>
       </c>
@@ -13656,13 +13698,13 @@
         <v>856</v>
       </c>
       <c r="K272" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="L272">
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B273" s="16">
         <v>44093</v>
       </c>
@@ -13675,17 +13717,17 @@
       <c r="H273" s="18" t="s">
         <v>857</v>
       </c>
-      <c r="J273" t="s">
+      <c r="J273" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="K273" t="s">
-        <v>997</v>
-      </c>
-      <c r="L273">
+      <c r="K273" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="L273" s="2">
         <v>3088</v>
       </c>
     </row>
-    <row r="274" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B274" s="16">
         <v>44092</v>
       </c>
@@ -13702,13 +13744,13 @@
         <v>858</v>
       </c>
       <c r="K274" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="L274">
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B275" s="16">
         <v>43999</v>
       </c>
@@ -13725,13 +13767,13 @@
         <v>859</v>
       </c>
       <c r="K275" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="L275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B276" s="16">
         <v>44069</v>
       </c>
@@ -13748,13 +13790,13 @@
         <v>860</v>
       </c>
       <c r="K276" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="L276">
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B277" s="16">
         <v>43712</v>
       </c>
@@ -13771,7 +13813,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="278" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B278" s="16">
         <v>44125</v>
       </c>
@@ -13788,13 +13830,13 @@
         <v>862</v>
       </c>
       <c r="K278" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="L278">
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B279" s="16">
         <v>44012</v>
       </c>
@@ -13811,7 +13853,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="280" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B280" s="16">
         <v>44154</v>
       </c>
@@ -13828,13 +13870,13 @@
         <v>864</v>
       </c>
       <c r="K280" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="L280">
         <v>663</v>
       </c>
     </row>
-    <row r="281" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B281" s="16">
         <v>43839</v>
       </c>
@@ -13851,13 +13893,13 @@
         <v>865</v>
       </c>
       <c r="K281" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="L281">
         <v>93</v>
       </c>
     </row>
-    <row r="282" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B282" s="16">
         <v>44041</v>
       </c>
@@ -13874,13 +13916,13 @@
         <v>866</v>
       </c>
       <c r="K282" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="L282">
         <v>212</v>
       </c>
     </row>
-    <row r="283" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B283" s="16">
         <v>44088</v>
       </c>
@@ -13897,13 +13939,13 @@
         <v>867</v>
       </c>
       <c r="K283" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="L283">
         <v>49</v>
       </c>
     </row>
-    <row r="284" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B284" s="16">
         <v>43843</v>
       </c>
@@ -13920,13 +13962,13 @@
         <v>868</v>
       </c>
       <c r="K284" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="L284">
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B285" s="16">
         <v>44109</v>
       </c>
@@ -13943,13 +13985,13 @@
         <v>869</v>
       </c>
       <c r="K285" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="L285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B286" s="16">
         <v>44158</v>
       </c>
@@ -13966,13 +14008,13 @@
         <v>870</v>
       </c>
       <c r="K286" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="L286">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B287" s="16">
         <v>43803</v>
       </c>
@@ -13995,7 +14037,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="288" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B288" s="16">
         <v>44237</v>
       </c>
@@ -14012,13 +14054,13 @@
         <v>872</v>
       </c>
       <c r="K288" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="L288">
         <v>148</v>
       </c>
     </row>
-    <row r="289" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B289" s="16">
         <v>44257</v>
       </c>
@@ -14035,13 +14077,13 @@
         <v>873</v>
       </c>
       <c r="K289" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="L289">
         <v>1563</v>
       </c>
     </row>
-    <row r="290" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B290" s="16">
         <v>44281</v>
       </c>
@@ -14058,13 +14100,13 @@
         <v>874</v>
       </c>
       <c r="K290" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="L290">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B291" s="16">
         <v>44187</v>
       </c>
@@ -14077,17 +14119,17 @@
       <c r="H291" s="18" t="s">
         <v>875</v>
       </c>
-      <c r="J291" t="s">
+      <c r="J291" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="K291" t="s">
+      <c r="K291" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="L291">
+      <c r="L291" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="292" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B292" s="16">
         <v>43866</v>
       </c>
@@ -14100,17 +14142,17 @@
       <c r="H292" s="18" t="s">
         <v>876</v>
       </c>
-      <c r="J292" t="s">
+      <c r="J292" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="K292" t="s">
+      <c r="K292" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="L292">
+      <c r="L292" s="2">
         <v>596</v>
       </c>
     </row>
-    <row r="293" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B293" s="16">
         <v>44131</v>
       </c>
@@ -14127,13 +14169,13 @@
         <v>877</v>
       </c>
       <c r="K293" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="L293">
         <v>89</v>
       </c>
     </row>
-    <row r="294" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B294" s="16">
         <v>44049</v>
       </c>
@@ -14150,13 +14192,13 @@
         <v>878</v>
       </c>
       <c r="K294" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="L294">
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B295" s="16">
         <v>43955</v>
       </c>
@@ -14173,13 +14215,13 @@
         <v>879</v>
       </c>
       <c r="K295" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="L295">
         <v>106</v>
       </c>
     </row>
-    <row r="296" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B296" s="16">
         <v>44167</v>
       </c>
@@ -14196,13 +14238,13 @@
         <v>880</v>
       </c>
       <c r="K296" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="L296">
         <v>579</v>
       </c>
     </row>
-    <row r="297" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B297" s="16">
         <v>43881</v>
       </c>
@@ -14219,13 +14261,13 @@
         <v>879</v>
       </c>
       <c r="K297" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="L297">
         <v>106</v>
       </c>
     </row>
-    <row r="298" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B298" s="16">
         <v>44168</v>
       </c>
@@ -14242,13 +14284,13 @@
         <v>881</v>
       </c>
       <c r="K298" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="L298">
         <v>218</v>
       </c>
     </row>
-    <row r="299" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B299" s="16">
         <v>44305</v>
       </c>
@@ -14265,13 +14307,13 @@
         <v>882</v>
       </c>
       <c r="K299" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="L299">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B300" s="16">
         <v>44350</v>
       </c>
@@ -14288,13 +14330,13 @@
         <v>883</v>
       </c>
       <c r="K300" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="L300">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B301" s="16">
         <v>44483</v>
       </c>
@@ -14311,13 +14353,13 @@
         <v>884</v>
       </c>
       <c r="K301" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="L301">
         <v>18</v>
       </c>
     </row>
-    <row r="302" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B302" s="16">
         <v>44027</v>
       </c>
@@ -14334,13 +14376,13 @@
         <v>885</v>
       </c>
       <c r="K302" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="L302">
         <v>3540</v>
       </c>
     </row>
-    <row r="303" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B303" s="16">
         <v>44112</v>
       </c>
@@ -14353,17 +14395,17 @@
       <c r="H303" s="18" t="s">
         <v>886</v>
       </c>
-      <c r="J303" t="s">
+      <c r="J303" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="K303" t="s">
-        <v>1021</v>
-      </c>
-      <c r="L303">
+      <c r="K303" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L303" s="2">
         <v>10430</v>
       </c>
     </row>
-    <row r="304" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B304" s="16">
         <v>44504</v>
       </c>
@@ -14380,13 +14422,13 @@
         <v>887</v>
       </c>
       <c r="K304" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="L304">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B305" s="16">
         <v>44207</v>
       </c>
@@ -14403,13 +14445,13 @@
         <v>888</v>
       </c>
       <c r="K305" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="L305">
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B306" s="16">
         <v>44315</v>
       </c>
@@ -14426,13 +14468,13 @@
         <v>889</v>
       </c>
       <c r="K306" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="L306">
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B307" s="16">
         <v>44319</v>
       </c>
@@ -14449,13 +14491,13 @@
         <v>890</v>
       </c>
       <c r="K307" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="L307">
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B308" s="16">
         <v>44508</v>
       </c>
@@ -14472,13 +14514,13 @@
         <v>891</v>
       </c>
       <c r="K308" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="L308">
         <v>696</v>
       </c>
     </row>
-    <row r="309" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B309" s="16">
         <v>44573</v>
       </c>
@@ -14495,13 +14537,13 @@
         <v>892</v>
       </c>
       <c r="K309" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="L309">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B310" s="16">
         <v>44484</v>
       </c>
@@ -14518,7 +14560,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="311" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B311" s="16">
         <v>44587</v>
       </c>
@@ -14535,13 +14577,13 @@
         <v>894</v>
       </c>
       <c r="K311" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="L311">
         <v>82</v>
       </c>
     </row>
-    <row r="312" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B312" s="16">
         <v>44251</v>
       </c>
@@ -14558,13 +14600,13 @@
         <v>895</v>
       </c>
       <c r="K312" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="L312">
         <v>70</v>
       </c>
     </row>
-    <row r="313" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B313" s="16">
         <v>44232</v>
       </c>
@@ -14581,13 +14623,13 @@
         <v>896</v>
       </c>
       <c r="K313" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="L313">
         <v>241</v>
       </c>
     </row>
-    <row r="314" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B314" s="16">
         <v>44410</v>
       </c>
@@ -14604,13 +14646,13 @@
         <v>853</v>
       </c>
       <c r="K314" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="L314">
         <v>44</v>
       </c>
     </row>
-    <row r="315" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B315" s="16">
         <v>44322</v>
       </c>
@@ -14627,13 +14669,13 @@
         <v>897</v>
       </c>
       <c r="K315" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="L315">
         <v>501</v>
       </c>
     </row>
-    <row r="316" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B316" s="16">
         <v>44259</v>
       </c>
@@ -14650,13 +14692,13 @@
         <v>898</v>
       </c>
       <c r="K316" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="L316">
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B317" s="16">
         <v>44671</v>
       </c>
@@ -14673,13 +14715,13 @@
         <v>899</v>
       </c>
       <c r="K317" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="L317">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B318" s="16">
         <v>44677</v>
       </c>
@@ -14696,7 +14738,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="319" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B319" s="16">
         <v>44508</v>
       </c>
@@ -14713,13 +14755,13 @@
         <v>901</v>
       </c>
       <c r="K319" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="L319">
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B320" s="16">
         <v>44580</v>
       </c>
@@ -14736,13 +14778,13 @@
         <v>902</v>
       </c>
       <c r="K320" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="L320">
         <v>269</v>
       </c>
     </row>
-    <row r="321" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B321" s="16">
         <v>44230</v>
       </c>
@@ -14759,13 +14801,13 @@
         <v>903</v>
       </c>
       <c r="K321" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="L321">
         <v>663</v>
       </c>
     </row>
-    <row r="322" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B322" s="16">
         <v>44550</v>
       </c>
@@ -14782,7 +14824,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="323" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B323" s="16">
         <v>43594</v>
       </c>
@@ -14799,13 +14841,13 @@
         <v>905</v>
       </c>
       <c r="K323" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="L323">
         <v>29</v>
       </c>
     </row>
-    <row r="324" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B324" s="16">
         <v>44822</v>
       </c>
@@ -14822,7 +14864,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="325" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B325" s="16">
         <v>44550</v>
       </c>
@@ -14839,13 +14881,13 @@
         <v>907</v>
       </c>
       <c r="K325" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L325">
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B326" s="16">
         <v>44420</v>
       </c>
@@ -14862,13 +14904,13 @@
         <v>908</v>
       </c>
       <c r="K326" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="L326">
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B327" s="16">
         <v>44628</v>
       </c>
@@ -14885,13 +14927,13 @@
         <v>880</v>
       </c>
       <c r="K327" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="L327">
         <v>579</v>
       </c>
     </row>
-    <row r="328" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B328" s="16">
         <v>44636</v>
       </c>
@@ -14904,17 +14946,17 @@
       <c r="H328" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="J328" t="s">
+      <c r="J328" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="K328" t="s">
+      <c r="K328" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="L328">
+      <c r="L328" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="329" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B329" s="16">
         <v>44679</v>
       </c>
@@ -14931,13 +14973,13 @@
         <v>910</v>
       </c>
       <c r="K329" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="L329">
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B330" s="16">
         <v>44509</v>
       </c>
@@ -14954,13 +14996,13 @@
         <v>911</v>
       </c>
       <c r="K330" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="L330">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B331" s="16">
         <v>44761</v>
       </c>
@@ -14977,13 +15019,13 @@
         <v>912</v>
       </c>
       <c r="K331" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="L331">
         <v>123</v>
       </c>
     </row>
-    <row r="332" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B332" s="16">
         <v>44784</v>
       </c>
@@ -15000,13 +15042,13 @@
         <v>913</v>
       </c>
       <c r="K332" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="L332">
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B333" s="16">
         <v>44650</v>
       </c>
@@ -15023,13 +15065,13 @@
         <v>914</v>
       </c>
       <c r="K333" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="L333">
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B334" s="16">
         <v>44860</v>
       </c>
@@ -15046,13 +15088,13 @@
         <v>915</v>
       </c>
       <c r="K334" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="L334">
         <v>83</v>
       </c>
     </row>
-    <row r="335" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B335" s="16">
         <v>45040</v>
       </c>
@@ -15069,13 +15111,13 @@
         <v>916</v>
       </c>
       <c r="K335" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="L335">
         <v>64</v>
       </c>
     </row>
-    <row r="336" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B336" s="16">
         <v>45056</v>
       </c>
@@ -15092,13 +15134,13 @@
         <v>917</v>
       </c>
       <c r="K336" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="L336">
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B337" s="16">
         <v>45062</v>
       </c>
@@ -15115,13 +15157,13 @@
         <v>918</v>
       </c>
       <c r="K337" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="L337">
         <v>1657</v>
       </c>
     </row>
-    <row r="338" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B338" s="16">
         <v>44970</v>
       </c>
@@ -15138,13 +15180,13 @@
         <v>919</v>
       </c>
       <c r="K338" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="L338">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B339" s="16">
         <v>44748</v>
       </c>
@@ -15161,13 +15203,13 @@
         <v>920</v>
       </c>
       <c r="K339" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="L339">
         <v>181</v>
       </c>
     </row>
-    <row r="340" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B340" s="16">
         <v>44777</v>
       </c>
@@ -15184,13 +15226,13 @@
         <v>921</v>
       </c>
       <c r="K340" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="L340">
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B341" s="16">
         <v>44770</v>
       </c>
@@ -15207,7 +15249,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="342" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B342" s="16">
         <v>44901</v>
       </c>
@@ -15224,13 +15266,13 @@
         <v>923</v>
       </c>
       <c r="K342" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="L342">
         <v>124</v>
       </c>
     </row>
-    <row r="343" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B343" s="16">
         <v>44980</v>
       </c>
@@ -15247,13 +15289,13 @@
         <v>924</v>
       </c>
       <c r="K343" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="L343">
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B344" s="16">
         <v>45181</v>
       </c>
@@ -15270,13 +15312,13 @@
         <v>925</v>
       </c>
       <c r="K344" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L344">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B345" s="16">
         <v>44918</v>
       </c>
@@ -15293,13 +15335,13 @@
         <v>926</v>
       </c>
       <c r="K345" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L345">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B346" s="16">
         <v>44818</v>
       </c>
@@ -15322,7 +15364,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="347" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B347" s="16">
         <v>44733</v>
       </c>
@@ -15339,13 +15381,13 @@
         <v>928</v>
       </c>
       <c r="K347" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="L347">
         <v>298</v>
       </c>
     </row>
-    <row r="348" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B348" s="16">
         <v>44691</v>
       </c>
@@ -15362,13 +15404,13 @@
         <v>929</v>
       </c>
       <c r="K348" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="L348">
         <v>1180</v>
       </c>
     </row>
-    <row r="349" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B349" s="16">
         <v>45203</v>
       </c>
@@ -15385,7 +15427,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="350" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B350" s="16">
         <v>44819</v>
       </c>
@@ -15408,7 +15450,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="351" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B351" s="16">
         <v>45189</v>
       </c>
@@ -15425,13 +15467,13 @@
         <v>932</v>
       </c>
       <c r="K351" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="L351">
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B352" s="16">
         <v>44867</v>
       </c>
@@ -15448,13 +15490,13 @@
         <v>933</v>
       </c>
       <c r="K352" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="L352">
         <v>47</v>
       </c>
     </row>
-    <row r="353" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B353" s="16">
         <v>45251</v>
       </c>
@@ -15471,13 +15513,13 @@
         <v>934</v>
       </c>
       <c r="K353" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="L353">
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B354" s="16">
         <v>44833</v>
       </c>
@@ -15494,13 +15536,13 @@
         <v>935</v>
       </c>
       <c r="K354" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="L354">
         <v>45</v>
       </c>
     </row>
-    <row r="355" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B355" s="16">
         <v>44958</v>
       </c>
@@ -15517,13 +15559,13 @@
         <v>936</v>
       </c>
       <c r="K355" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="L355">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B356" s="16">
         <v>45351</v>
       </c>
@@ -15540,7 +15582,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="357" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B357" s="16">
         <v>44768</v>
       </c>
@@ -15557,13 +15599,13 @@
         <v>938</v>
       </c>
       <c r="K357" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="L357">
         <v>569</v>
       </c>
     </row>
-    <row r="358" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B358" s="16">
         <v>44509</v>
       </c>
@@ -15580,13 +15622,13 @@
         <v>911</v>
       </c>
       <c r="K358" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="L358">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B359" s="16">
         <v>45314</v>
       </c>
@@ -15603,13 +15645,13 @@
         <v>939</v>
       </c>
       <c r="K359" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="L359">
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B360" s="16">
         <v>45446</v>
       </c>
@@ -15626,13 +15668,13 @@
         <v>940</v>
       </c>
       <c r="K360" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="L360">
         <v>245</v>
       </c>
     </row>
-    <row r="361" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B361" s="16">
         <v>45344</v>
       </c>
@@ -15649,7 +15691,7 @@
         <v>941</v>
       </c>
       <c r="K361" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="L361">
         <v>0</v>

--- a/Results/GlassDoorVerifiedList.xlsx
+++ b/Results/GlassDoorVerifiedList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lqian\Desktop\GlassDoorProject\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo_q\Desktop\Working on\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69A8D20-DB65-45EA-8EE3-AB43AE157F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E67B4A2-2BAA-4824-BB1F-9EA7F9A3A3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="copy" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1082">
   <si>
     <t>D_num</t>
   </si>
@@ -3071,15 +3071,9 @@
     <t>https://www.glassdoor.com/Reviews/International-Paper-Reviews-E356.htm</t>
   </si>
   <si>
-    <t>https://www.glassdoor.com/Reviews/Moz-Group-Reviews-E8908447.htm</t>
-  </si>
-  <si>
     <t>https://www.glassdoor.com/Reviews/Arizona-Lithium-Reviews-E10664680.htm</t>
   </si>
   <si>
-    <t>https://www.glassdoor.com/Reviews/Genie-Reviews-E1141469.htm</t>
-  </si>
-  <si>
     <t>https://www.glassdoor.com/Reviews/Dell-Technologies-Reviews-E1327.htm</t>
   </si>
   <si>
@@ -3098,12 +3092,6 @@
     <t>https://www.glassdoor.com/Reviews/Meredith-IA-Reviews-E6624707.htm</t>
   </si>
   <si>
-    <t>https://www.glassdoor.com/Reviews/Vector-Marketing-Reviews-E26785.htm</t>
-  </si>
-  <si>
-    <t>https://www.glassdoor.com/Reviews/PTC-TX-Reviews-E5003588.htm</t>
-  </si>
-  <si>
     <t>https://www.glassdoor.com/Reviews/Neudesic-Reviews-E117212.htm</t>
   </si>
   <si>
@@ -3140,9 +3128,6 @@
     <t>https://www.glassdoor.com/Reviews/Fortune-Brands-Innovations-Reviews-E31.htm</t>
   </si>
   <si>
-    <t>https://www.glassdoor.com/Reviews/General-Electric-Company-Reviews-E10699498.htm</t>
-  </si>
-  <si>
     <t>https://www.glassdoor.com/Reviews/Jefferies-Reviews-E1546.htm</t>
   </si>
   <si>
@@ -3188,9 +3173,6 @@
     <t>https://www.glassdoor.com/Reviews/Aramark-Reviews-E2716.htm</t>
   </si>
   <si>
-    <t>https://www.glassdoor.com/Reviews/W-P-Carey-Reviews-E10782644.htm</t>
-  </si>
-  <si>
     <t>https://www.glassdoor.com/Reviews/Alkermes-Reviews-E1176.htm</t>
   </si>
   <si>
@@ -3200,9 +3182,6 @@
     <t>https://www.glassdoor.com/Reviews/Worthington-Enterprises-Reviews-E2046.htm</t>
   </si>
   <si>
-    <t>https://www.glassdoor.com/Reviews/Flex-Carpentry-Ltd-Reviews-E5200597.htm</t>
-  </si>
-  <si>
     <t>https://www.glassdoor.com/Reviews/3M-Reviews-E446.htm</t>
   </si>
   <si>
@@ -3261,6 +3240,45 @@
   </si>
   <si>
     <t>https://www.glassdoor.com/Reviews/Amount-Reviews-E3022487.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Fortive-Reviews-E1334602.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Ziff-Davis-Reviews-E6132150.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Genie-Energy-Reviews-E1034949.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Vector-Group-Reviews-E402.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/PTC-Reviews-E1855.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/RLH-Equity-Reviews-E1000750.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Biohaven-Pharmaceuticals-Reviews-E3054889.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/GE-Reviews-E277.htm</t>
+  </si>
+  <si>
+    <t>Merge into safehold</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Labcorp-Reviews-E1679.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/NCR-Voyix-Reviews-E10016304.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/W-P-Carey-Reviews-E7682.htm</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/Flex-Reviews-E1036355.htm</t>
   </si>
 </sst>
 </file>
@@ -3897,9 +3915,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3937,7 +3955,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4043,7 +4061,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4185,7 +4203,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4195,21 +4213,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="K259" sqref="K259"/>
+    <sheetView tabSelected="1" topLeftCell="G317" workbookViewId="0">
+      <selection activeCell="M359" sqref="M359"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
-    <col min="11" max="11" width="81.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.81640625" customWidth="1"/>
+    <col min="11" max="11" width="81.1796875" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4262,7 +4280,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>958653020</v>
       </c>
@@ -4300,7 +4318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1084001020</v>
       </c>
@@ -4338,7 +4356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1042093020</v>
       </c>
@@ -4376,7 +4394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>903763020</v>
       </c>
@@ -4414,7 +4432,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>892756020</v>
       </c>
@@ -4448,7 +4466,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>906356020</v>
       </c>
@@ -4486,7 +4504,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>997497020</v>
       </c>
@@ -4524,7 +4542,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1004652020</v>
       </c>
@@ -4562,7 +4580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1033777020</v>
       </c>
@@ -4600,7 +4618,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>904488020</v>
       </c>
@@ -4638,7 +4656,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>1061243020</v>
       </c>
@@ -4672,7 +4690,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1027400020</v>
       </c>
@@ -4710,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1024939020</v>
       </c>
@@ -4748,7 +4766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>982714020</v>
       </c>
@@ -4792,7 +4810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>937277020</v>
       </c>
@@ -4830,7 +4848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>1002408020</v>
       </c>
@@ -4878,7 +4896,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>1016041020</v>
       </c>
@@ -4916,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>1081959020</v>
       </c>
@@ -4954,7 +4972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1068976020</v>
       </c>
@@ -4992,7 +5010,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>1020416020</v>
       </c>
@@ -5030,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>1073206020</v>
       </c>
@@ -5068,7 +5086,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>1224268020</v>
       </c>
@@ -5115,7 +5133,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1052511020</v>
       </c>
@@ -5153,7 +5171,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1052020020</v>
       </c>
@@ -5191,7 +5209,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1221948020</v>
       </c>
@@ -5229,7 +5247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>1198395020</v>
       </c>
@@ -5265,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1073581020</v>
       </c>
@@ -5303,7 +5321,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1228949020</v>
       </c>
@@ -5344,7 +5362,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1192517020</v>
       </c>
@@ -5391,7 +5409,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1256755020</v>
       </c>
@@ -5429,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1273248020</v>
       </c>
@@ -5467,7 +5485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>1219213020</v>
       </c>
@@ -5514,7 +5532,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>1264376020</v>
       </c>
@@ -5552,7 +5570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>1195012020</v>
       </c>
@@ -5593,7 +5611,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>1273272020</v>
       </c>
@@ -5631,7 +5649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>1273291020</v>
       </c>
@@ -5669,7 +5687,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>1279953020</v>
       </c>
@@ -5707,7 +5725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>1285502020</v>
       </c>
@@ -5745,7 +5763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>1337206020</v>
       </c>
@@ -5786,7 +5804,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>1336812020</v>
       </c>
@@ -5824,7 +5842,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>1379899020</v>
       </c>
@@ -5862,7 +5880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>1389126020</v>
       </c>
@@ -5900,7 +5918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>1387525020</v>
       </c>
@@ -5938,7 +5956,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>1410848020</v>
       </c>
@@ -5976,7 +5994,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>1378176020</v>
       </c>
@@ -6012,7 +6030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>1360301020</v>
       </c>
@@ -6050,7 +6068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>1361276020</v>
       </c>
@@ -6089,7 +6107,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>1370494020</v>
       </c>
@@ -6127,7 +6145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>1426370020</v>
       </c>
@@ -6165,7 +6183,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>1460786020</v>
       </c>
@@ -6206,7 +6224,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>1506840020</v>
       </c>
@@ -6256,7 +6274,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>1311101020</v>
       </c>
@@ -6294,7 +6312,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>1613492020</v>
       </c>
@@ -6332,7 +6350,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>1501311020</v>
       </c>
@@ -6370,7 +6388,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>1527753020</v>
       </c>
@@ -6417,7 +6435,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>1634892020</v>
       </c>
@@ -6455,7 +6473,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>1651997020</v>
       </c>
@@ -6496,7 +6514,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>1637399020</v>
       </c>
@@ -6534,7 +6552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>1678350020</v>
       </c>
@@ -6575,7 +6593,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>1626566020</v>
       </c>
@@ -6613,7 +6631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>1661511020</v>
       </c>
@@ -6651,7 +6669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>1674219020</v>
       </c>
@@ -6692,7 +6710,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>1684048020</v>
       </c>
@@ -6730,7 +6748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>1638823020</v>
       </c>
@@ -6768,7 +6786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>1730664020</v>
       </c>
@@ -6809,7 +6827,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>1769501020</v>
       </c>
@@ -6847,7 +6865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>1717019020</v>
       </c>
@@ -6885,7 +6903,7 @@
         <v>3467</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>1781948020</v>
       </c>
@@ -6923,7 +6941,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>1727788020</v>
       </c>
@@ -6961,7 +6979,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>1828427020</v>
       </c>
@@ -6999,7 +7017,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>1869388020</v>
       </c>
@@ -7037,7 +7055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>1890896020</v>
       </c>
@@ -7075,7 +7093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>1899036020</v>
       </c>
@@ -7116,7 +7134,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>1843920020</v>
       </c>
@@ -7157,7 +7175,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>1916095020</v>
       </c>
@@ -7198,7 +7216,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="13">
         <v>1911231020</v>
       </c>
@@ -7232,7 +7250,7 @@
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>1777138020</v>
       </c>
@@ -7270,7 +7288,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>1915098020</v>
       </c>
@@ -7308,7 +7326,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>1919100020</v>
       </c>
@@ -7346,7 +7364,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1921829020</v>
       </c>
@@ -7384,7 +7402,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>1925083020</v>
       </c>
@@ -7416,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="9">
         <v>1921929020</v>
       </c>
@@ -7457,7 +7475,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>1934978020</v>
       </c>
@@ -7495,7 +7513,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>1955865020</v>
       </c>
@@ -7533,7 +7551,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>1955205020</v>
       </c>
@@ -7571,7 +7589,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>1970203020</v>
       </c>
@@ -7609,7 +7627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="11">
         <v>1974055020</v>
       </c>
@@ -7656,7 +7674,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>2081682020</v>
       </c>
@@ -7694,7 +7712,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>2037973020</v>
       </c>
@@ -7732,7 +7750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>2002678020</v>
       </c>
@@ -7770,7 +7788,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>2073486020</v>
       </c>
@@ -7808,7 +7826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>2069415020</v>
       </c>
@@ -7855,7 +7873,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>2122200020</v>
       </c>
@@ -7896,7 +7914,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>2122041020</v>
       </c>
@@ -7934,7 +7952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>2134950020</v>
       </c>
@@ -7972,7 +7990,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2215677020</v>
       </c>
@@ -8007,7 +8025,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>1963668020</v>
       </c>
@@ -8045,7 +8063,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>2284811020</v>
       </c>
@@ -8083,7 +8101,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>2270499020</v>
       </c>
@@ -8121,7 +8139,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>2240450020</v>
       </c>
@@ -8159,7 +8177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="9">
         <v>2340793020</v>
       </c>
@@ -8200,7 +8218,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="11">
         <v>2247301020</v>
       </c>
@@ -8241,7 +8259,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>2269869020</v>
       </c>
@@ -8279,7 +8297,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>2280274020</v>
       </c>
@@ -8317,7 +8335,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>2298785020</v>
       </c>
@@ -8355,7 +8373,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>2322236020</v>
       </c>
@@ -8393,7 +8411,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="11">
         <v>2329249020</v>
       </c>
@@ -8434,7 +8452,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="13">
         <v>2348102020</v>
       </c>
@@ -8468,7 +8486,7 @@
       <c r="K109" s="13"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>2328994020</v>
       </c>
@@ -8506,7 +8524,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>2284965020</v>
       </c>
@@ -8544,7 +8562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="9">
         <v>2318902020</v>
       </c>
@@ -8585,7 +8603,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>2368043020</v>
       </c>
@@ -8623,7 +8641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="11">
         <v>2428081020</v>
       </c>
@@ -8664,7 +8682,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>2429502020</v>
       </c>
@@ -8702,7 +8720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="9">
         <v>2345908020</v>
       </c>
@@ -8743,7 +8761,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>2334734020</v>
       </c>
@@ -8781,7 +8799,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="13">
         <v>2458646020</v>
       </c>
@@ -8820,7 +8838,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="11">
         <v>2379016020</v>
       </c>
@@ -8861,7 +8879,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>2481811020</v>
       </c>
@@ -8899,7 +8917,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="9">
         <v>2355953020</v>
       </c>
@@ -8940,7 +8958,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>2440857020</v>
       </c>
@@ -8978,7 +8996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>2487032020</v>
       </c>
@@ -9016,7 +9034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>2438406020</v>
       </c>
@@ -9054,7 +9072,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="9">
         <v>2317826020</v>
       </c>
@@ -9101,7 +9119,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>2428061020</v>
       </c>
@@ -9139,7 +9157,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="9">
         <v>2546815020</v>
       </c>
@@ -9180,7 +9198,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>2459735020</v>
       </c>
@@ -9218,7 +9236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>2446365020</v>
       </c>
@@ -9256,7 +9274,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>2470936020</v>
       </c>
@@ -9294,7 +9312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>2468735020</v>
       </c>
@@ -9332,7 +9350,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>2507810020</v>
       </c>
@@ -9370,7 +9388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>9999999000</v>
       </c>
@@ -9408,7 +9426,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>2553535020</v>
       </c>
@@ -9446,7 +9464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>2465216020</v>
       </c>
@@ -9484,7 +9502,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="9">
         <v>2579746020</v>
       </c>
@@ -9525,7 +9543,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>2551064020</v>
       </c>
@@ -9563,7 +9581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>2569695020</v>
       </c>
@@ -9601,7 +9619,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>2582407020</v>
       </c>
@@ -9639,7 +9657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="13">
         <v>2643625020</v>
       </c>
@@ -9675,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="9">
         <v>2502261020</v>
       </c>
@@ -9716,7 +9734,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>2604709020</v>
       </c>
@@ -9754,7 +9772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>2563900020</v>
       </c>
@@ -9792,7 +9810,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="11">
         <v>2612302020</v>
       </c>
@@ -9833,7 +9851,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>2497761020</v>
       </c>
@@ -9874,7 +9892,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>2569669020</v>
       </c>
@@ -9912,7 +9930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="13">
         <v>2634481020</v>
       </c>
@@ -9951,7 +9969,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>2592526020</v>
       </c>
@@ -9989,7 +10007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" s="9">
         <v>2627743020</v>
       </c>
@@ -10030,7 +10048,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>2568108020</v>
       </c>
@@ -10068,7 +10086,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="9">
         <v>2584546020</v>
       </c>
@@ -10105,7 +10123,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>2603563020</v>
       </c>
@@ -10143,7 +10161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" s="9">
         <v>2635780020</v>
       </c>
@@ -10184,7 +10202,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>2627635020</v>
       </c>
@@ -10231,7 +10249,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>2609908020</v>
       </c>
@@ -10269,7 +10287,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>2644735020</v>
       </c>
@@ -10307,7 +10325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>2714449020</v>
       </c>
@@ -10348,7 +10366,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="13">
         <v>2635681020</v>
       </c>
@@ -10387,7 +10405,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>2659304020</v>
       </c>
@@ -10425,7 +10443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>2661527020</v>
       </c>
@@ -10463,7 +10481,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>2549249020</v>
       </c>
@@ -10501,7 +10519,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>2622309020</v>
       </c>
@@ -10539,7 +10557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>2632951020</v>
       </c>
@@ -10577,7 +10595,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>2680811020</v>
       </c>
@@ -10615,7 +10633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>2696199020</v>
       </c>
@@ -10653,7 +10671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>2706323020</v>
       </c>
@@ -10691,7 +10709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>2691750020</v>
       </c>
@@ -10729,7 +10747,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>2603921020</v>
       </c>
@@ -10767,7 +10785,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="9">
         <v>2728015020</v>
       </c>
@@ -10808,7 +10826,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>2673601020</v>
       </c>
@@ -10846,7 +10864,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>2690217020</v>
       </c>
@@ -10884,7 +10902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>2689710020</v>
       </c>
@@ -10922,7 +10940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>2682929020</v>
       </c>
@@ -10960,7 +10978,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>2696761020</v>
       </c>
@@ -10998,7 +11016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>2767110020</v>
       </c>
@@ -11036,7 +11054,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>2723108020</v>
       </c>
@@ -11074,7 +11092,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>2719793020</v>
       </c>
@@ -11112,7 +11130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>2748351020</v>
       </c>
@@ -11150,7 +11168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>2726717020</v>
       </c>
@@ -11188,7 +11206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>2787910020</v>
       </c>
@@ -11226,7 +11244,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>2713458020</v>
       </c>
@@ -11264,7 +11282,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="9">
         <v>2940516020</v>
       </c>
@@ -11305,7 +11323,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>2598500020</v>
       </c>
@@ -11343,7 +11361,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>2752282020</v>
       </c>
@@ -11381,7 +11399,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>2954488020</v>
       </c>
@@ -11419,7 +11437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>2798647020</v>
       </c>
@@ -11457,7 +11475,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>2801932020</v>
       </c>
@@ -11495,7 +11513,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>2957646020</v>
       </c>
@@ -11533,7 +11551,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>2805584020</v>
       </c>
@@ -11571,7 +11589,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>9999999005</v>
       </c>
@@ -11609,7 +11627,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>2822207020</v>
       </c>
@@ -11647,7 +11665,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>3032736020</v>
       </c>
@@ -11685,7 +11703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>3021104020</v>
       </c>
@@ -11723,7 +11741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>2915194020</v>
       </c>
@@ -11761,7 +11779,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>2855241020</v>
       </c>
@@ -11799,7 +11817,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>2962520020</v>
       </c>
@@ -11837,7 +11855,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>2953980020</v>
       </c>
@@ -11875,7 +11893,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="9">
         <v>3005901020</v>
       </c>
@@ -11916,7 +11934,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="9">
         <v>3063341020</v>
       </c>
@@ -11957,7 +11975,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>3113110020</v>
       </c>
@@ -11995,7 +12013,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="9">
         <v>3157900020</v>
       </c>
@@ -12036,7 +12054,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>3126486020</v>
       </c>
@@ -12074,7 +12092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B203" s="16">
         <v>42937</v>
       </c>
@@ -12097,7 +12115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B204" s="16">
         <v>43096</v>
       </c>
@@ -12120,7 +12138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B205" s="16">
         <v>42926</v>
       </c>
@@ -12143,7 +12161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B206" s="16">
         <v>43154</v>
       </c>
@@ -12166,10 +12184,10 @@
         <v>73</v>
       </c>
       <c r="M206" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B207" s="16">
         <v>42817</v>
       </c>
@@ -12192,7 +12210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B208" s="16">
         <v>42985</v>
       </c>
@@ -12215,7 +12233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B209" s="16">
         <v>43186</v>
       </c>
@@ -12238,7 +12256,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="210" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B210" s="16">
         <v>43193</v>
       </c>
@@ -12261,7 +12279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="211" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B211" s="16">
         <v>42864</v>
       </c>
@@ -12284,7 +12302,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="212" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B212" s="16">
         <v>43076</v>
       </c>
@@ -12307,7 +12325,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="213" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B213" s="16">
         <v>43231</v>
       </c>
@@ -12330,7 +12348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B214" s="16">
         <v>42753</v>
       </c>
@@ -12353,7 +12371,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="215" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B215" s="16">
         <v>42968</v>
       </c>
@@ -12367,19 +12385,19 @@
         <v>803</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="K215" s="2" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="L215" s="2">
         <v>260</v>
       </c>
       <c r="M215" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="216" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="216" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B216" s="16">
         <v>42949</v>
       </c>
@@ -12396,16 +12414,16 @@
         <v>803</v>
       </c>
       <c r="K216" s="2" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="L216" s="2">
         <v>76</v>
       </c>
       <c r="M216" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="217" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="217" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B217" s="16">
         <v>42950</v>
       </c>
@@ -12428,7 +12446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B218" s="16">
         <v>43108</v>
       </c>
@@ -12445,16 +12463,16 @@
         <v>805</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="L218" s="2">
         <v>84</v>
       </c>
       <c r="M218" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="219" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="219" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B219" s="16">
         <v>43083</v>
       </c>
@@ -12477,7 +12495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B220" s="16">
         <v>43208</v>
       </c>
@@ -12500,7 +12518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B221" s="16">
         <v>43089</v>
       </c>
@@ -12523,7 +12541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B222" s="16">
         <v>43332</v>
       </c>
@@ -12546,7 +12564,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="223" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B223" s="16">
         <v>43207</v>
       </c>
@@ -12569,7 +12587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B224" s="16">
         <v>43221</v>
       </c>
@@ -12592,7 +12610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B225" s="16">
         <v>43360</v>
       </c>
@@ -12615,7 +12633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B226" s="16">
         <v>42942</v>
       </c>
@@ -12632,13 +12650,13 @@
         <v>813</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="L226" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="227" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B227" s="16">
         <v>43018</v>
       </c>
@@ -12661,7 +12679,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="228" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B228" s="16">
         <v>43053</v>
       </c>
@@ -12684,7 +12702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B229" s="16">
         <v>43018</v>
       </c>
@@ -12707,7 +12725,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="230" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B230" s="16">
         <v>43081</v>
       </c>
@@ -12730,7 +12748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="231" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B231" s="16">
         <v>43152</v>
       </c>
@@ -12753,7 +12771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B232" s="16">
         <v>43140</v>
       </c>
@@ -12776,7 +12794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="233" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B233" s="16">
         <v>43433</v>
       </c>
@@ -12799,7 +12817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B234" s="16">
         <v>43493</v>
       </c>
@@ -12822,7 +12840,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="235" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B235" s="16">
         <v>43507</v>
       </c>
@@ -12845,7 +12863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="236" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B236" s="16">
         <v>43536</v>
       </c>
@@ -12868,7 +12886,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="237" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B237" s="16">
         <v>43083</v>
       </c>
@@ -12891,10 +12909,10 @@
         <v>4</v>
       </c>
       <c r="M237" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="238" spans="2:16" x14ac:dyDescent="0.25">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="238" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B238" s="16">
         <v>43221</v>
       </c>
@@ -12923,7 +12941,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="239" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B239" s="16">
         <v>43349</v>
       </c>
@@ -12940,16 +12958,16 @@
         <v>825</v>
       </c>
       <c r="K239" s="2" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="L239" s="2">
         <v>334</v>
       </c>
       <c r="M239" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="240" spans="2:16" x14ac:dyDescent="0.25">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="240" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B240" s="16">
         <v>43556</v>
       </c>
@@ -12972,7 +12990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B241" s="16">
         <v>43493</v>
       </c>
@@ -12995,7 +13013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B242" s="16">
         <v>43325</v>
       </c>
@@ -13018,7 +13036,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="243" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B243" s="16">
         <v>43349</v>
       </c>
@@ -13035,13 +13053,13 @@
         <v>825</v>
       </c>
       <c r="K243" s="2" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="L243" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="244" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B244" s="16">
         <v>43622</v>
       </c>
@@ -13064,7 +13082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B245" s="16">
         <v>43628</v>
       </c>
@@ -13081,13 +13099,13 @@
         <v>830</v>
       </c>
       <c r="K245" s="2" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="L245" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B246" s="16">
         <v>43158</v>
       </c>
@@ -13110,7 +13128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B247" s="16">
         <v>43621</v>
       </c>
@@ -13127,13 +13145,13 @@
         <v>832</v>
       </c>
       <c r="K247" s="2" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="L247" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B248" s="16">
         <v>43472</v>
       </c>
@@ -13150,16 +13168,16 @@
         <v>833</v>
       </c>
       <c r="K248" s="6" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="L248" s="6">
         <v>6</v>
       </c>
       <c r="M248" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="249" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="249" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B249" s="16">
         <v>43692</v>
       </c>
@@ -13182,7 +13200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B250" s="16">
         <v>43714</v>
       </c>
@@ -13205,7 +13223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B251" s="16">
         <v>43591</v>
       </c>
@@ -13228,7 +13246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B252" s="16">
         <v>43423</v>
       </c>
@@ -13251,7 +13269,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="253" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B253" s="16">
         <v>43756</v>
       </c>
@@ -13274,7 +13292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B254" s="16">
         <v>43760</v>
       </c>
@@ -13297,7 +13315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B255" s="16">
         <v>43661</v>
       </c>
@@ -13320,7 +13338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B256" s="16">
         <v>43866</v>
       </c>
@@ -13337,16 +13355,16 @@
         <v>841</v>
       </c>
       <c r="K256" s="2" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="L256" s="2">
         <v>16</v>
       </c>
       <c r="M256" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="257" spans="2:12" x14ac:dyDescent="0.25">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="257" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B257" s="16">
         <v>43377</v>
       </c>
@@ -13365,7 +13383,7 @@
       <c r="K257" s="13"/>
       <c r="L257" s="13"/>
     </row>
-    <row r="258" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B258" s="16">
         <v>43733</v>
       </c>
@@ -13378,11 +13396,17 @@
       <c r="H258" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="J258" t="s">
+      <c r="J258" s="2" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="259" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K258" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="L258" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="259" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B259" s="16">
         <v>43748</v>
       </c>
@@ -13395,17 +13419,17 @@
       <c r="H259" s="18" t="s">
         <v>844</v>
       </c>
-      <c r="J259" t="s">
+      <c r="J259" s="13" t="s">
         <v>844</v>
       </c>
-      <c r="K259" t="s">
+      <c r="K259" s="13" t="s">
         <v>981</v>
       </c>
-      <c r="L259">
+      <c r="L259" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B260" s="16">
         <v>43502</v>
       </c>
@@ -13418,17 +13442,17 @@
       <c r="H260" s="18" t="s">
         <v>845</v>
       </c>
-      <c r="J260" t="s">
+      <c r="J260" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="K260" t="s">
+      <c r="K260" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="L260">
+      <c r="L260" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="261" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B261" s="16">
         <v>43430</v>
       </c>
@@ -13441,17 +13465,17 @@
       <c r="H261" s="18" t="s">
         <v>846</v>
       </c>
-      <c r="J261" t="s">
+      <c r="J261" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="K261" t="s">
+      <c r="K261" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="L261">
+      <c r="L261" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="262" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B262" s="16">
         <v>43430</v>
       </c>
@@ -13474,7 +13498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="263" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B263" s="16">
         <v>43278</v>
       </c>
@@ -13487,17 +13511,17 @@
       <c r="H263" s="18" t="s">
         <v>847</v>
       </c>
-      <c r="J263" t="s">
+      <c r="J263" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="K263" t="s">
+      <c r="K263" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="L263">
+      <c r="L263" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="264" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B264" s="16">
         <v>43971</v>
       </c>
@@ -13510,17 +13534,17 @@
       <c r="H264" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="J264" t="s">
+      <c r="J264" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="K264" t="s">
+      <c r="K264" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="L264">
+      <c r="L264" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B265" s="16">
         <v>43984</v>
       </c>
@@ -13533,17 +13557,17 @@
       <c r="H265" s="18" t="s">
         <v>849</v>
       </c>
-      <c r="J265" t="s">
+      <c r="J265" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="K265" t="s">
+      <c r="K265" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="L265">
+      <c r="L265" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B266" s="16">
         <v>43998</v>
       </c>
@@ -13556,17 +13580,17 @@
       <c r="H266" s="18" t="s">
         <v>850</v>
       </c>
-      <c r="J266" t="s">
+      <c r="J266" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="K266" t="s">
+      <c r="K266" s="13" t="s">
         <v>986</v>
       </c>
-      <c r="L266">
+      <c r="L266" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B267" s="16">
         <v>44007</v>
       </c>
@@ -13579,17 +13603,17 @@
       <c r="H267" s="18" t="s">
         <v>851</v>
       </c>
-      <c r="J267" t="s">
+      <c r="J267" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="K267" t="s">
+      <c r="K267" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="L267">
+      <c r="L267" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B268" s="16">
         <v>43684</v>
       </c>
@@ -13612,7 +13636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B269" s="16">
         <v>43780</v>
       </c>
@@ -13625,17 +13649,17 @@
       <c r="H269" s="18" t="s">
         <v>853</v>
       </c>
-      <c r="J269" t="s">
+      <c r="J269" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="K269" t="s">
+      <c r="K269" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="L269">
+      <c r="L269" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="270" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B270" s="16">
         <v>43906</v>
       </c>
@@ -13648,17 +13672,17 @@
       <c r="H270" s="18" t="s">
         <v>854</v>
       </c>
-      <c r="J270" t="s">
+      <c r="J270" s="13" t="s">
         <v>854</v>
       </c>
-      <c r="K270" t="s">
+      <c r="K270" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="L270">
+      <c r="L270" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B271" s="16">
         <v>44039</v>
       </c>
@@ -13671,17 +13695,17 @@
       <c r="H271" s="18" t="s">
         <v>855</v>
       </c>
-      <c r="J271" t="s">
+      <c r="J271" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="K271" t="s">
+      <c r="K271" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="L271">
+      <c r="L271" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B272" s="16">
         <v>43782</v>
       </c>
@@ -13694,17 +13718,17 @@
       <c r="H272" s="18" t="s">
         <v>856</v>
       </c>
-      <c r="J272" t="s">
+      <c r="J272" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="K272" t="s">
+      <c r="K272" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="L272">
+      <c r="L272" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B273" s="16">
         <v>44093</v>
       </c>
@@ -13727,7 +13751,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="274" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B274" s="16">
         <v>44092</v>
       </c>
@@ -13740,17 +13764,17 @@
       <c r="H274" s="18" t="s">
         <v>858</v>
       </c>
-      <c r="J274" t="s">
+      <c r="J274" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="K274" t="s">
+      <c r="K274" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="L274">
+      <c r="L274" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B275" s="16">
         <v>43999</v>
       </c>
@@ -13763,17 +13787,17 @@
       <c r="H275" s="18" t="s">
         <v>859</v>
       </c>
-      <c r="J275" t="s">
+      <c r="J275" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="K275" t="s">
+      <c r="K275" s="13" t="s">
         <v>994</v>
       </c>
-      <c r="L275">
+      <c r="L275" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B276" s="16">
         <v>44069</v>
       </c>
@@ -13786,17 +13810,17 @@
       <c r="H276" s="18" t="s">
         <v>860</v>
       </c>
-      <c r="J276" t="s">
+      <c r="J276" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="K276" t="s">
+      <c r="K276" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="L276">
+      <c r="L276" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B277" s="16">
         <v>43712</v>
       </c>
@@ -13809,11 +13833,17 @@
       <c r="H277" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="J277" t="s">
+      <c r="J277" s="2" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="278" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K277" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L277" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B278" s="16">
         <v>44125</v>
       </c>
@@ -13826,17 +13856,17 @@
       <c r="H278" s="18" t="s">
         <v>862</v>
       </c>
-      <c r="J278" t="s">
+      <c r="J278" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="K278" t="s">
+      <c r="K278" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="L278">
+      <c r="L278" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B279" s="16">
         <v>44012</v>
       </c>
@@ -13849,11 +13879,13 @@
       <c r="H279" s="18" t="s">
         <v>863</v>
       </c>
-      <c r="J279" t="s">
+      <c r="J279" s="13" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="280" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K279" s="13"/>
+      <c r="L279" s="13"/>
+    </row>
+    <row r="280" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B280" s="16">
         <v>44154</v>
       </c>
@@ -13866,17 +13898,17 @@
       <c r="H280" s="18" t="s">
         <v>864</v>
       </c>
-      <c r="J280" t="s">
+      <c r="J280" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="K280" t="s">
+      <c r="K280" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="L280">
+      <c r="L280" s="2">
         <v>663</v>
       </c>
     </row>
-    <row r="281" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B281" s="16">
         <v>43839</v>
       </c>
@@ -13889,17 +13921,17 @@
       <c r="H281" s="18" t="s">
         <v>865</v>
       </c>
-      <c r="J281" t="s">
+      <c r="J281" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="K281" t="s">
+      <c r="K281" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="L281">
+      <c r="L281" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="282" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B282" s="16">
         <v>44041</v>
       </c>
@@ -13912,17 +13944,17 @@
       <c r="H282" s="18" t="s">
         <v>866</v>
       </c>
-      <c r="J282" t="s">
+      <c r="J282" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="K282" t="s">
+      <c r="K282" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="L282">
+      <c r="L282" s="2">
         <v>212</v>
       </c>
     </row>
-    <row r="283" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B283" s="16">
         <v>44088</v>
       </c>
@@ -13935,17 +13967,17 @@
       <c r="H283" s="18" t="s">
         <v>867</v>
       </c>
-      <c r="J283" t="s">
+      <c r="J283" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="K283" t="s">
+      <c r="K283" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="L283">
+      <c r="L283" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="284" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B284" s="16">
         <v>43843</v>
       </c>
@@ -13958,17 +13990,17 @@
       <c r="H284" s="18" t="s">
         <v>868</v>
       </c>
-      <c r="J284" t="s">
+      <c r="J284" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="K284" t="s">
+      <c r="K284" s="13" t="s">
         <v>1001</v>
       </c>
-      <c r="L284">
+      <c r="L284" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B285" s="16">
         <v>44109</v>
       </c>
@@ -13981,17 +14013,17 @@
       <c r="H285" s="18" t="s">
         <v>869</v>
       </c>
-      <c r="J285" t="s">
+      <c r="J285" s="13" t="s">
         <v>869</v>
       </c>
-      <c r="K285" t="s">
+      <c r="K285" s="13" t="s">
         <v>1002</v>
       </c>
-      <c r="L285">
+      <c r="L285" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B286" s="16">
         <v>44158</v>
       </c>
@@ -14004,17 +14036,17 @@
       <c r="H286" s="18" t="s">
         <v>870</v>
       </c>
-      <c r="J286" t="s">
+      <c r="J286" s="13" t="s">
         <v>870</v>
       </c>
-      <c r="K286" t="s">
+      <c r="K286" s="13" t="s">
         <v>1003</v>
       </c>
-      <c r="L286">
+      <c r="L286" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B287" s="16">
         <v>43803</v>
       </c>
@@ -14027,17 +14059,17 @@
       <c r="H287" s="18" t="s">
         <v>871</v>
       </c>
-      <c r="J287" t="s">
+      <c r="J287" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="K287" t="s">
+      <c r="K287" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="L287">
+      <c r="L287" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="288" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B288" s="16">
         <v>44237</v>
       </c>
@@ -14050,17 +14082,17 @@
       <c r="H288" s="18" t="s">
         <v>872</v>
       </c>
-      <c r="J288" t="s">
+      <c r="J288" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="K288" t="s">
+      <c r="K288" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="L288">
+      <c r="L288" s="2">
         <v>148</v>
       </c>
     </row>
-    <row r="289" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B289" s="16">
         <v>44257</v>
       </c>
@@ -14073,17 +14105,17 @@
       <c r="H289" s="18" t="s">
         <v>873</v>
       </c>
-      <c r="J289" t="s">
+      <c r="J289" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="K289" t="s">
+      <c r="K289" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="L289">
+      <c r="L289" s="2">
         <v>1563</v>
       </c>
     </row>
-    <row r="290" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B290" s="16">
         <v>44281</v>
       </c>
@@ -14096,17 +14128,17 @@
       <c r="H290" s="18" t="s">
         <v>874</v>
       </c>
-      <c r="J290" t="s">
+      <c r="J290" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="K290" t="s">
+      <c r="K290" s="13" t="s">
         <v>1006</v>
       </c>
-      <c r="L290">
+      <c r="L290" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B291" s="16">
         <v>44187</v>
       </c>
@@ -14129,7 +14161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="292" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B292" s="16">
         <v>43866</v>
       </c>
@@ -14152,7 +14184,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="293" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B293" s="16">
         <v>44131</v>
       </c>
@@ -14165,17 +14197,17 @@
       <c r="H293" s="18" t="s">
         <v>877</v>
       </c>
-      <c r="J293" t="s">
+      <c r="J293" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="K293" t="s">
+      <c r="K293" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="L293">
+      <c r="L293" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="294" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B294" s="16">
         <v>44049</v>
       </c>
@@ -14188,17 +14220,17 @@
       <c r="H294" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="J294" t="s">
+      <c r="J294" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="K294" t="s">
+      <c r="K294" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="L294">
+      <c r="L294" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B295" s="16">
         <v>43955</v>
       </c>
@@ -14211,17 +14243,17 @@
       <c r="H295" s="18" t="s">
         <v>879</v>
       </c>
-      <c r="J295" t="s">
+      <c r="J295" s="13" t="s">
         <v>879</v>
       </c>
-      <c r="K295" t="s">
+      <c r="K295" s="13" t="s">
         <v>1009</v>
       </c>
-      <c r="L295">
+      <c r="L295" s="13">
         <v>106</v>
       </c>
     </row>
-    <row r="296" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B296" s="16">
         <v>44167</v>
       </c>
@@ -14234,17 +14266,17 @@
       <c r="H296" s="18" t="s">
         <v>880</v>
       </c>
-      <c r="J296" t="s">
+      <c r="J296" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="K296" t="s">
+      <c r="K296" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="L296">
+      <c r="L296" s="2">
         <v>579</v>
       </c>
     </row>
-    <row r="297" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B297" s="16">
         <v>43881</v>
       </c>
@@ -14257,17 +14289,17 @@
       <c r="H297" s="18" t="s">
         <v>879</v>
       </c>
-      <c r="J297" t="s">
+      <c r="J297" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="K297" t="s">
+      <c r="K297" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="L297">
+      <c r="L297" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="298" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B298" s="16">
         <v>44168</v>
       </c>
@@ -14280,17 +14312,17 @@
       <c r="H298" s="18" t="s">
         <v>881</v>
       </c>
-      <c r="J298" t="s">
+      <c r="J298" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="K298" t="s">
+      <c r="K298" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="L298">
+      <c r="L298" s="2">
         <v>218</v>
       </c>
     </row>
-    <row r="299" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B299" s="16">
         <v>44305</v>
       </c>
@@ -14303,17 +14335,17 @@
       <c r="H299" s="18" t="s">
         <v>882</v>
       </c>
-      <c r="J299" t="s">
+      <c r="J299" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="K299" t="s">
-        <v>1012</v>
-      </c>
-      <c r="L299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K299" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L299" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B300" s="16">
         <v>44350</v>
       </c>
@@ -14326,17 +14358,17 @@
       <c r="H300" s="18" t="s">
         <v>883</v>
       </c>
-      <c r="J300" t="s">
+      <c r="J300" s="13" t="s">
         <v>883</v>
       </c>
-      <c r="K300" t="s">
-        <v>1013</v>
-      </c>
-      <c r="L300">
+      <c r="K300" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L300" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B301" s="16">
         <v>44483</v>
       </c>
@@ -14349,17 +14381,17 @@
       <c r="H301" s="18" t="s">
         <v>884</v>
       </c>
-      <c r="J301" t="s">
+      <c r="J301" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="K301" t="s">
-        <v>1014</v>
-      </c>
-      <c r="L301">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="302" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K301" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L301" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B302" s="16">
         <v>44027</v>
       </c>
@@ -14372,17 +14404,17 @@
       <c r="H302" s="18" t="s">
         <v>885</v>
       </c>
-      <c r="J302" t="s">
+      <c r="J302" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="K302" t="s">
-        <v>1015</v>
-      </c>
-      <c r="L302">
+      <c r="K302" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L302" s="2">
         <v>3540</v>
       </c>
     </row>
-    <row r="303" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B303" s="16">
         <v>44112</v>
       </c>
@@ -14399,13 +14431,13 @@
         <v>886</v>
       </c>
       <c r="K303" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="L303" s="2">
         <v>10430</v>
       </c>
     </row>
-    <row r="304" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B304" s="16">
         <v>44504</v>
       </c>
@@ -14418,17 +14450,17 @@
       <c r="H304" s="18" t="s">
         <v>887</v>
       </c>
-      <c r="J304" t="s">
+      <c r="J304" s="13" t="s">
         <v>887</v>
       </c>
-      <c r="K304" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L304">
+      <c r="K304" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L304" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B305" s="16">
         <v>44207</v>
       </c>
@@ -14441,17 +14473,17 @@
       <c r="H305" s="18" t="s">
         <v>888</v>
       </c>
-      <c r="J305" t="s">
+      <c r="J305" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="K305" t="s">
-        <v>1018</v>
-      </c>
-      <c r="L305">
+      <c r="K305" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L305" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B306" s="16">
         <v>44315</v>
       </c>
@@ -14464,17 +14496,17 @@
       <c r="H306" s="18" t="s">
         <v>889</v>
       </c>
-      <c r="J306" t="s">
+      <c r="J306" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="K306" t="s">
-        <v>1019</v>
-      </c>
-      <c r="L306">
+      <c r="K306" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L306" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B307" s="16">
         <v>44319</v>
       </c>
@@ -14487,17 +14519,17 @@
       <c r="H307" s="18" t="s">
         <v>890</v>
       </c>
-      <c r="J307" t="s">
+      <c r="J307" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="K307" t="s">
-        <v>1020</v>
-      </c>
-      <c r="L307">
+      <c r="K307" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L307" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B308" s="16">
         <v>44508</v>
       </c>
@@ -14510,17 +14542,17 @@
       <c r="H308" s="18" t="s">
         <v>891</v>
       </c>
-      <c r="J308" t="s">
+      <c r="J308" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="K308" t="s">
-        <v>1021</v>
-      </c>
-      <c r="L308">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="309" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K308" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L308" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B309" s="16">
         <v>44573</v>
       </c>
@@ -14533,17 +14565,17 @@
       <c r="H309" s="18" t="s">
         <v>892</v>
       </c>
-      <c r="J309" t="s">
+      <c r="J309" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="K309" t="s">
-        <v>1022</v>
-      </c>
-      <c r="L309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K309" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L309" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="310" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B310" s="16">
         <v>44484</v>
       </c>
@@ -14556,11 +14588,13 @@
       <c r="H310" s="18" t="s">
         <v>893</v>
       </c>
-      <c r="J310" t="s">
+      <c r="J310" s="13" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="311" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K310" s="13"/>
+      <c r="L310" s="13"/>
+    </row>
+    <row r="311" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B311" s="16">
         <v>44587</v>
       </c>
@@ -14573,17 +14607,17 @@
       <c r="H311" s="18" t="s">
         <v>894</v>
       </c>
-      <c r="J311" t="s">
+      <c r="J311" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="K311" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L311">
+      <c r="K311" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L311" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="312" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B312" s="16">
         <v>44251</v>
       </c>
@@ -14596,17 +14630,17 @@
       <c r="H312" s="18" t="s">
         <v>895</v>
       </c>
-      <c r="J312" t="s">
+      <c r="J312" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="K312" t="s">
-        <v>1024</v>
-      </c>
-      <c r="L312">
+      <c r="K312" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="L312" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="313" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B313" s="16">
         <v>44232</v>
       </c>
@@ -14619,17 +14653,17 @@
       <c r="H313" s="18" t="s">
         <v>896</v>
       </c>
-      <c r="J313" t="s">
+      <c r="J313" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="K313" t="s">
-        <v>1025</v>
-      </c>
-      <c r="L313">
+      <c r="K313" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L313" s="2">
         <v>241</v>
       </c>
     </row>
-    <row r="314" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B314" s="16">
         <v>44410</v>
       </c>
@@ -14642,17 +14676,17 @@
       <c r="H314" s="18" t="s">
         <v>853</v>
       </c>
-      <c r="J314" t="s">
+      <c r="J314" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="K314" t="s">
+      <c r="K314" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="L314">
+      <c r="L314" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="315" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B315" s="16">
         <v>44322</v>
       </c>
@@ -14665,17 +14699,17 @@
       <c r="H315" s="18" t="s">
         <v>897</v>
       </c>
-      <c r="J315" t="s">
+      <c r="J315" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="K315" t="s">
-        <v>1026</v>
-      </c>
-      <c r="L315">
+      <c r="K315" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L315" s="2">
         <v>501</v>
       </c>
     </row>
-    <row r="316" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B316" s="16">
         <v>44259</v>
       </c>
@@ -14688,17 +14722,17 @@
       <c r="H316" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="J316" t="s">
+      <c r="J316" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="K316" t="s">
-        <v>1027</v>
-      </c>
-      <c r="L316">
+      <c r="K316" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L316" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B317" s="16">
         <v>44671</v>
       </c>
@@ -14711,17 +14745,17 @@
       <c r="H317" s="18" t="s">
         <v>899</v>
       </c>
-      <c r="J317" t="s">
+      <c r="J317" s="13" t="s">
         <v>899</v>
       </c>
-      <c r="K317" t="s">
-        <v>1028</v>
-      </c>
-      <c r="L317">
+      <c r="K317" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L317" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B318" s="16">
         <v>44677</v>
       </c>
@@ -14734,11 +14768,17 @@
       <c r="H318" s="18" t="s">
         <v>900</v>
       </c>
-      <c r="J318" t="s">
+      <c r="J318" s="2" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="319" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K318" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="L318" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B319" s="16">
         <v>44508</v>
       </c>
@@ -14751,17 +14791,17 @@
       <c r="H319" s="18" t="s">
         <v>901</v>
       </c>
-      <c r="J319" t="s">
+      <c r="J319" s="13" t="s">
         <v>901</v>
       </c>
-      <c r="K319" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L319">
+      <c r="K319" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L319" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B320" s="16">
         <v>44580</v>
       </c>
@@ -14774,17 +14814,17 @@
       <c r="H320" s="18" t="s">
         <v>902</v>
       </c>
-      <c r="J320" t="s">
+      <c r="J320" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="K320" t="s">
-        <v>1030</v>
-      </c>
-      <c r="L320">
+      <c r="K320" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L320" s="2">
         <v>269</v>
       </c>
     </row>
-    <row r="321" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B321" s="16">
         <v>44230</v>
       </c>
@@ -14797,17 +14837,17 @@
       <c r="H321" s="18" t="s">
         <v>903</v>
       </c>
-      <c r="J321" t="s">
+      <c r="J321" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K321" t="s">
+      <c r="K321" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="L321">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="322" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L321" s="2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="322" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B322" s="16">
         <v>44550</v>
       </c>
@@ -14820,11 +14860,13 @@
       <c r="H322" s="18" t="s">
         <v>904</v>
       </c>
-      <c r="J322" t="s">
+      <c r="J322" s="13" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="323" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K322" s="13"/>
+      <c r="L322" s="13"/>
+    </row>
+    <row r="323" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B323" s="16">
         <v>43594</v>
       </c>
@@ -14837,17 +14879,17 @@
       <c r="H323" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="J323" t="s">
+      <c r="J323" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="K323" t="s">
-        <v>1031</v>
-      </c>
-      <c r="L323">
+      <c r="K323" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L323" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="324" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B324" s="16">
         <v>44822</v>
       </c>
@@ -14860,11 +14902,17 @@
       <c r="H324" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="J324" t="s">
+      <c r="J324" s="2" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="325" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K324" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L324" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B325" s="16">
         <v>44550</v>
       </c>
@@ -14877,17 +14925,17 @@
       <c r="H325" s="18" t="s">
         <v>907</v>
       </c>
-      <c r="J325" t="s">
+      <c r="J325" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="K325" t="s">
-        <v>1032</v>
-      </c>
-      <c r="L325">
+      <c r="K325" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L325" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B326" s="16">
         <v>44420</v>
       </c>
@@ -14900,17 +14948,17 @@
       <c r="H326" s="18" t="s">
         <v>908</v>
       </c>
-      <c r="J326" t="s">
+      <c r="J326" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="K326" t="s">
-        <v>1033</v>
-      </c>
-      <c r="L326">
+      <c r="K326" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L326" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B327" s="16">
         <v>44628</v>
       </c>
@@ -14923,17 +14971,17 @@
       <c r="H327" s="18" t="s">
         <v>880</v>
       </c>
-      <c r="J327" t="s">
+      <c r="J327" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="K327" t="s">
+      <c r="K327" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="L327">
+      <c r="L327" s="2">
         <v>579</v>
       </c>
     </row>
-    <row r="328" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B328" s="16">
         <v>44636</v>
       </c>
@@ -14956,7 +15004,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="329" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B329" s="16">
         <v>44679</v>
       </c>
@@ -14969,17 +15017,17 @@
       <c r="H329" s="18" t="s">
         <v>910</v>
       </c>
-      <c r="J329" t="s">
+      <c r="J329" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="K329" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L329">
+      <c r="K329" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="L329" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B330" s="16">
         <v>44509</v>
       </c>
@@ -14992,17 +15040,17 @@
       <c r="H330" s="18" t="s">
         <v>911</v>
       </c>
-      <c r="J330" t="s">
+      <c r="J330" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="K330" t="s">
-        <v>1035</v>
-      </c>
-      <c r="L330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K330" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="L330" s="2">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="331" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B331" s="16">
         <v>44761</v>
       </c>
@@ -15015,17 +15063,17 @@
       <c r="H331" s="18" t="s">
         <v>912</v>
       </c>
-      <c r="J331" t="s">
+      <c r="J331" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K331" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L331">
+      <c r="K331" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L331" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="332" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B332" s="16">
         <v>44784</v>
       </c>
@@ -15038,17 +15086,20 @@
       <c r="H332" s="18" t="s">
         <v>913</v>
       </c>
-      <c r="J332" t="s">
+      <c r="J332" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="K332" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L332">
+      <c r="K332" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L332" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="333" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M332" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="333" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B333" s="16">
         <v>44650</v>
       </c>
@@ -15061,17 +15112,17 @@
       <c r="H333" s="18" t="s">
         <v>914</v>
       </c>
-      <c r="J333" t="s">
+      <c r="J333" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K333" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L333">
+      <c r="K333" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L333" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B334" s="16">
         <v>44860</v>
       </c>
@@ -15084,17 +15135,17 @@
       <c r="H334" s="18" t="s">
         <v>915</v>
       </c>
-      <c r="J334" t="s">
+      <c r="J334" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="K334" t="s">
+      <c r="K334" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="L334">
+      <c r="L334" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="335" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B335" s="16">
         <v>45040</v>
       </c>
@@ -15107,17 +15158,17 @@
       <c r="H335" s="18" t="s">
         <v>916</v>
       </c>
-      <c r="J335" t="s">
+      <c r="J335" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="K335" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L335">
+      <c r="K335" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L335" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="336" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B336" s="16">
         <v>45056</v>
       </c>
@@ -15130,17 +15181,17 @@
       <c r="H336" s="18" t="s">
         <v>917</v>
       </c>
-      <c r="J336" t="s">
+      <c r="J336" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="K336" t="s">
-        <v>1040</v>
-      </c>
-      <c r="L336">
+      <c r="K336" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L336" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B337" s="16">
         <v>45062</v>
       </c>
@@ -15153,17 +15204,17 @@
       <c r="H337" s="18" t="s">
         <v>918</v>
       </c>
-      <c r="J337" t="s">
+      <c r="J337" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="K337" t="s">
-        <v>1041</v>
-      </c>
-      <c r="L337">
+      <c r="K337" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L337" s="2">
         <v>1657</v>
       </c>
     </row>
-    <row r="338" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B338" s="16">
         <v>44970</v>
       </c>
@@ -15176,17 +15227,17 @@
       <c r="H338" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="J338" t="s">
+      <c r="J338" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="K338" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L338">
+      <c r="K338" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L338" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B339" s="16">
         <v>44748</v>
       </c>
@@ -15199,17 +15250,17 @@
       <c r="H339" s="18" t="s">
         <v>920</v>
       </c>
-      <c r="J339" t="s">
+      <c r="J339" s="13" t="s">
         <v>920</v>
       </c>
-      <c r="K339" t="s">
-        <v>1043</v>
-      </c>
-      <c r="L339">
+      <c r="K339" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L339" s="13">
         <v>181</v>
       </c>
     </row>
-    <row r="340" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B340" s="16">
         <v>44777</v>
       </c>
@@ -15222,17 +15273,17 @@
       <c r="H340" s="18" t="s">
         <v>921</v>
       </c>
-      <c r="J340" t="s">
+      <c r="J340" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="K340" t="s">
-        <v>1044</v>
-      </c>
-      <c r="L340">
+      <c r="K340" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L340" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B341" s="16">
         <v>44770</v>
       </c>
@@ -15245,11 +15296,17 @@
       <c r="H341" s="18" t="s">
         <v>922</v>
       </c>
-      <c r="J341" t="s">
+      <c r="J341" s="2" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="342" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K341" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L341" s="2">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="342" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B342" s="16">
         <v>44901</v>
       </c>
@@ -15262,17 +15319,17 @@
       <c r="H342" s="18" t="s">
         <v>923</v>
       </c>
-      <c r="J342" t="s">
+      <c r="J342" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="K342" t="s">
-        <v>1045</v>
-      </c>
-      <c r="L342">
+      <c r="K342" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L342" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="343" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B343" s="16">
         <v>44980</v>
       </c>
@@ -15285,17 +15342,17 @@
       <c r="H343" s="18" t="s">
         <v>924</v>
       </c>
-      <c r="J343" t="s">
+      <c r="J343" s="13" t="s">
         <v>924</v>
       </c>
-      <c r="K343" t="s">
-        <v>1046</v>
-      </c>
-      <c r="L343">
+      <c r="K343" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L343" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B344" s="16">
         <v>45181</v>
       </c>
@@ -15308,17 +15365,17 @@
       <c r="H344" s="18" t="s">
         <v>925</v>
       </c>
-      <c r="J344" t="s">
+      <c r="J344" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="K344" t="s">
-        <v>1047</v>
-      </c>
-      <c r="L344">
+      <c r="K344" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L344" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B345" s="16">
         <v>44918</v>
       </c>
@@ -15331,17 +15388,17 @@
       <c r="H345" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="J345" t="s">
+      <c r="J345" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="K345" t="s">
-        <v>1048</v>
-      </c>
-      <c r="L345">
+      <c r="K345" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L345" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B346" s="16">
         <v>44818</v>
       </c>
@@ -15354,17 +15411,17 @@
       <c r="H346" s="18" t="s">
         <v>927</v>
       </c>
-      <c r="J346" t="s">
+      <c r="J346" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="K346" t="s">
+      <c r="K346" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="L346">
+      <c r="L346" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="347" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B347" s="16">
         <v>44733</v>
       </c>
@@ -15377,17 +15434,17 @@
       <c r="H347" s="18" t="s">
         <v>928</v>
       </c>
-      <c r="J347" t="s">
+      <c r="J347" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="K347" t="s">
-        <v>1049</v>
-      </c>
-      <c r="L347">
+      <c r="K347" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L347" s="2">
         <v>298</v>
       </c>
     </row>
-    <row r="348" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B348" s="16">
         <v>44691</v>
       </c>
@@ -15400,17 +15457,17 @@
       <c r="H348" s="18" t="s">
         <v>929</v>
       </c>
-      <c r="J348" t="s">
+      <c r="J348" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="K348" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L348">
+      <c r="K348" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L348" s="2">
         <v>1180</v>
       </c>
     </row>
-    <row r="349" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B349" s="16">
         <v>45203</v>
       </c>
@@ -15423,11 +15480,13 @@
       <c r="H349" s="18" t="s">
         <v>930</v>
       </c>
-      <c r="J349" t="s">
+      <c r="J349" s="13" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="350" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K349" s="13"/>
+      <c r="L349" s="13"/>
+    </row>
+    <row r="350" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B350" s="16">
         <v>44819</v>
       </c>
@@ -15440,17 +15499,17 @@
       <c r="H350" s="18" t="s">
         <v>931</v>
       </c>
-      <c r="J350" t="s">
+      <c r="J350" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="K350" t="s">
-        <v>626</v>
-      </c>
-      <c r="L350">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="351" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K350" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L350" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="351" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B351" s="16">
         <v>45189</v>
       </c>
@@ -15463,17 +15522,17 @@
       <c r="H351" s="18" t="s">
         <v>932</v>
       </c>
-      <c r="J351" t="s">
+      <c r="J351" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="K351" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K351" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L351" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B352" s="16">
         <v>44867</v>
       </c>
@@ -15486,17 +15545,17 @@
       <c r="H352" s="18" t="s">
         <v>933</v>
       </c>
-      <c r="J352" t="s">
+      <c r="J352" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="K352" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L352">
+      <c r="K352" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L352" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="353" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B353" s="16">
         <v>45251</v>
       </c>
@@ -15509,17 +15568,17 @@
       <c r="H353" s="18" t="s">
         <v>934</v>
       </c>
-      <c r="J353" t="s">
+      <c r="J353" s="13" t="s">
         <v>934</v>
       </c>
-      <c r="K353" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L353">
+      <c r="K353" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L353" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B354" s="16">
         <v>44833</v>
       </c>
@@ -15532,17 +15591,17 @@
       <c r="H354" s="18" t="s">
         <v>935</v>
       </c>
-      <c r="J354" t="s">
+      <c r="J354" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="K354" t="s">
-        <v>1054</v>
-      </c>
-      <c r="L354">
+      <c r="K354" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L354" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="355" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B355" s="16">
         <v>44958</v>
       </c>
@@ -15555,17 +15614,17 @@
       <c r="H355" s="18" t="s">
         <v>936</v>
       </c>
-      <c r="J355" t="s">
+      <c r="J355" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="K355" t="s">
-        <v>1055</v>
-      </c>
-      <c r="L355">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K355" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L355" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="356" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B356" s="16">
         <v>45351</v>
       </c>
@@ -15578,11 +15637,13 @@
       <c r="H356" s="18" t="s">
         <v>937</v>
       </c>
-      <c r="J356" t="s">
+      <c r="J356" s="13" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="357" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K356" s="13"/>
+      <c r="L356" s="13"/>
+    </row>
+    <row r="357" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B357" s="16">
         <v>44768</v>
       </c>
@@ -15595,17 +15656,17 @@
       <c r="H357" s="18" t="s">
         <v>938</v>
       </c>
-      <c r="J357" t="s">
+      <c r="J357" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="K357" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L357">
+      <c r="K357" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L357" s="2">
         <v>569</v>
       </c>
     </row>
-    <row r="358" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B358" s="16">
         <v>44509</v>
       </c>
@@ -15618,17 +15679,17 @@
       <c r="H358" s="18" t="s">
         <v>911</v>
       </c>
-      <c r="J358" t="s">
+      <c r="J358" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="K358" t="s">
-        <v>1035</v>
-      </c>
-      <c r="L358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K358" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="L358" s="2">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="359" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B359" s="16">
         <v>45314</v>
       </c>
@@ -15641,17 +15702,17 @@
       <c r="H359" s="18" t="s">
         <v>939</v>
       </c>
-      <c r="J359" t="s">
+      <c r="J359" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="K359" t="s">
-        <v>1057</v>
-      </c>
-      <c r="L359">
+      <c r="K359" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L359" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B360" s="16">
         <v>45446</v>
       </c>
@@ -15664,17 +15725,17 @@
       <c r="H360" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="J360" t="s">
+      <c r="J360" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="K360" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L360">
+      <c r="K360" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L360" s="2">
         <v>245</v>
       </c>
     </row>
-    <row r="361" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B361" s="16">
         <v>45344</v>
       </c>
@@ -15687,13 +15748,13 @@
       <c r="H361" s="18" t="s">
         <v>941</v>
       </c>
-      <c r="J361" t="s">
+      <c r="J361" s="13" t="s">
         <v>941</v>
       </c>
-      <c r="K361" t="s">
-        <v>1059</v>
-      </c>
-      <c r="L361">
+      <c r="K361" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L361" s="13">
         <v>0</v>
       </c>
     </row>
